--- a/data/trans_orig/IP26C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP26C-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E6B8158-DAA5-4843-87ED-F038089E26CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3C7E2CF-20B6-4C8F-A09F-0CE96A7D5B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{5EEBF4E0-CB16-44B6-9980-86A231AB5618}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{1EA1D738-3ED2-43DA-B6E9-0DC2E474769E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -71,6 +71,63 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Sí con ampollas</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>Si sin ampollas</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -101,69 +158,141 @@
     <t>99,2%</t>
   </si>
   <si>
-    <t>Si sin ampollas</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>Sí con ampollas</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
     <t>82,58%</t>
   </si>
   <si>
@@ -191,133 +320,49 @@
     <t>82,04%</t>
   </si>
   <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
   </si>
   <si>
     <t>90,57%</t>
@@ -347,54 +392,57 @@
     <t>90,69%</t>
   </si>
   <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
     <t>Menores según si han sufrido alguna quemadura solar en el último año en 2012 (Tasa respuesta: 98,9%)</t>
   </si>
   <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
     <t>96,25%</t>
   </si>
   <si>
@@ -422,52 +470,127 @@
     <t>98,07%</t>
   </si>
   <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
   </si>
   <si>
     <t>79,8%</t>
@@ -497,127 +620,52 @@
     <t>82,87%</t>
   </si>
   <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
   </si>
   <si>
     <t>87,01%</t>
@@ -644,57 +692,48 @@
     <t>90,59%</t>
   </si>
   <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
     <t>Menores según si han sufrido alguna quemadura solar en el último año en 2015 (Tasa respuesta: 99,01%)</t>
   </si>
   <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
     <t>93,97%</t>
   </si>
   <si>
@@ -719,43 +758,115 @@
     <t>97,97%</t>
   </si>
   <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
   </si>
   <si>
     <t>83,76%</t>
@@ -785,115 +896,49 @@
     <t>86,96%</t>
   </si>
   <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
   </si>
   <si>
     <t>90,7%</t>
@@ -923,54 +968,51 @@
     <t>91,84%</t>
   </si>
   <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
     <t>Menores según si han sufrido alguna quemadura solar en el último año en 2023 (Tasa respuesta: 99,84%)</t>
   </si>
   <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
     <t>92,14%</t>
   </si>
   <si>
@@ -998,46 +1040,106 @@
     <t>94,58%</t>
   </si>
   <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
   </si>
   <si>
     <t>88,61%</t>
@@ -1049,9 +1151,6 @@
     <t>91,49%</t>
   </si>
   <si>
-    <t>90,18%</t>
-  </si>
-  <si>
     <t>87,08%</t>
   </si>
   <si>
@@ -1067,103 +1166,49 @@
     <t>91,2%</t>
   </si>
   <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
   </si>
   <si>
     <t>88,67%</t>
@@ -1191,51 +1236,6 @@
   </si>
   <si>
     <t>90,89%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
   </si>
 </sst>
 </file>
@@ -1627,7 +1627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50A48E5-D15C-42AB-96A7-71E37938DDF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA741061-344B-4FE5-94CD-714A52D69A63}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1745,10 +1745,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>324</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>216628</v>
+        <v>1174</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1760,40 +1760,40 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>312</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>205216</v>
+        <v>1216</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>4</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2390</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>636</v>
-      </c>
-      <c r="N4" s="7">
-        <v>421844</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>4</v>
@@ -1802,13 +1802,13 @@
         <v>2672</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -1817,13 +1817,13 @@
         <v>1772</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -1832,55 +1832,55 @@
         <v>4444</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="7">
+        <v>324</v>
+      </c>
+      <c r="D6" s="7">
+        <v>216628</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="7">
-        <v>2</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1174</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7">
+        <v>312</v>
+      </c>
+      <c r="I6" s="7">
+        <v>205216</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="7">
-        <v>2</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1216</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>35</v>
       </c>
       <c r="M6" s="7">
-        <v>4</v>
+        <v>636</v>
       </c>
       <c r="N6" s="7">
-        <v>2390</v>
+        <v>421844</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>36</v>
@@ -1951,10 +1951,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>346</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>230748</v>
+        <v>2500</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1966,136 +1966,136 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>301</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>202156</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>4</v>
+      </c>
+      <c r="N8" s="7">
+        <v>2500</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="7">
-        <v>647</v>
-      </c>
-      <c r="N8" s="7">
-        <v>432904</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="D9" s="7">
-        <v>46108</v>
+        <v>12573</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="H9" s="7">
+        <v>19</v>
+      </c>
+      <c r="I9" s="7">
+        <v>12473</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="7">
-        <v>89</v>
-      </c>
-      <c r="I9" s="7">
-        <v>60658</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>38</v>
+      </c>
+      <c r="N9" s="7">
+        <v>25046</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="M9" s="7">
-        <v>158</v>
-      </c>
-      <c r="N9" s="7">
-        <v>106765</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>305</v>
       </c>
       <c r="D10" s="7">
-        <v>2574</v>
+        <v>201580</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>285</v>
+      </c>
+      <c r="I10" s="7">
+        <v>192749</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="7">
-        <v>4</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2789</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>590</v>
+      </c>
+      <c r="N10" s="7">
+        <v>394329</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="M10" s="7">
-        <v>8</v>
-      </c>
-      <c r="N10" s="7">
-        <v>5362</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2104,10 +2104,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>419</v>
+        <v>328</v>
       </c>
       <c r="D11" s="7">
-        <v>279429</v>
+        <v>216652</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>39</v>
@@ -2119,10 +2119,10 @@
         <v>39</v>
       </c>
       <c r="H11" s="7">
-        <v>394</v>
+        <v>304</v>
       </c>
       <c r="I11" s="7">
-        <v>265603</v>
+        <v>205222</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>39</v>
@@ -2134,10 +2134,10 @@
         <v>39</v>
       </c>
       <c r="M11" s="7">
-        <v>813</v>
+        <v>632</v>
       </c>
       <c r="N11" s="7">
-        <v>545032</v>
+        <v>421874</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>39</v>
@@ -2151,154 +2151,154 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>305</v>
+        <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>201580</v>
+        <v>2574</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>4</v>
+      </c>
+      <c r="I12" s="7">
+        <v>2789</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="7">
-        <v>285</v>
-      </c>
-      <c r="I12" s="7">
-        <v>192749</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>8</v>
+      </c>
+      <c r="N12" s="7">
+        <v>5362</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="M12" s="7">
-        <v>590</v>
-      </c>
-      <c r="N12" s="7">
-        <v>394329</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="D13" s="7">
-        <v>12573</v>
+        <v>46108</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>89</v>
+      </c>
+      <c r="I13" s="7">
+        <v>60658</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H13" s="7">
-        <v>19</v>
-      </c>
-      <c r="I13" s="7">
-        <v>12473</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>158</v>
+      </c>
+      <c r="N13" s="7">
+        <v>106765</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="M13" s="7">
-        <v>38</v>
-      </c>
-      <c r="N13" s="7">
-        <v>25046</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>346</v>
       </c>
       <c r="D14" s="7">
-        <v>2500</v>
+        <v>230748</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>301</v>
+      </c>
+      <c r="I14" s="7">
+        <v>202156</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>647</v>
+      </c>
+      <c r="N14" s="7">
+        <v>432904</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="M14" s="7">
-        <v>4</v>
-      </c>
-      <c r="N14" s="7">
-        <v>2500</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>92</v>
@@ -2310,10 +2310,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>328</v>
+        <v>419</v>
       </c>
       <c r="D15" s="7">
-        <v>216652</v>
+        <v>279429</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>39</v>
@@ -2325,10 +2325,10 @@
         <v>39</v>
       </c>
       <c r="H15" s="7">
-        <v>304</v>
+        <v>394</v>
       </c>
       <c r="I15" s="7">
-        <v>205222</v>
+        <v>265603</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>39</v>
@@ -2340,10 +2340,10 @@
         <v>39</v>
       </c>
       <c r="M15" s="7">
-        <v>632</v>
+        <v>813</v>
       </c>
       <c r="N15" s="7">
-        <v>421874</v>
+        <v>545032</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>39</v>
@@ -2363,55 +2363,55 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>975</v>
+        <v>10</v>
       </c>
       <c r="D16" s="7">
-        <v>648955</v>
+        <v>6248</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>93</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>6</v>
+      </c>
+      <c r="I16" s="7">
+        <v>4005</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H16" s="7">
-        <v>898</v>
-      </c>
-      <c r="I16" s="7">
-        <v>600121</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>16</v>
+      </c>
+      <c r="N16" s="7">
+        <v>10253</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="M16" s="7">
-        <v>1873</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1249077</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>92</v>
@@ -2420,13 +2420,13 @@
         <v>61352</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H17" s="7">
         <v>111</v>
@@ -2435,13 +2435,13 @@
         <v>74903</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M17" s="7">
         <v>203</v>
@@ -2450,61 +2450,61 @@
         <v>136255</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
-        <v>10</v>
+        <v>975</v>
       </c>
       <c r="D18" s="7">
-        <v>6248</v>
+        <v>648955</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H18" s="7">
+        <v>898</v>
+      </c>
+      <c r="I18" s="7">
+        <v>600121</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H18" s="7">
-        <v>6</v>
-      </c>
-      <c r="I18" s="7">
-        <v>4005</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>1873</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1249077</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="M18" s="7">
-        <v>16</v>
-      </c>
-      <c r="N18" s="7">
-        <v>10253</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>116</v>
@@ -2577,7 +2577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABBAFBA-EC34-4065-BC2C-7D83CCE02D89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE85FF3E-E77D-494B-9FA8-FEB494949A08}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2695,55 +2695,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>318</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>225478</v>
+        <v>2147</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1361</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="H4" s="7">
-        <v>325</v>
-      </c>
-      <c r="I4" s="7">
-        <v>215746</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>5</v>
+      </c>
+      <c r="N4" s="7">
+        <v>3509</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="M4" s="7">
-        <v>643</v>
-      </c>
-      <c r="N4" s="7">
-        <v>441224</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>10</v>
@@ -2752,13 +2752,13 @@
         <v>6637</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -2767,13 +2767,13 @@
         <v>3478</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -2782,55 +2782,55 @@
         <v>10115</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>318</v>
       </c>
       <c r="D6" s="7">
-        <v>2147</v>
+        <v>225478</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7">
+        <v>325</v>
+      </c>
+      <c r="I6" s="7">
+        <v>215746</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H6" s="7">
-        <v>2</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1361</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>139</v>
       </c>
       <c r="M6" s="7">
-        <v>5</v>
+        <v>643</v>
       </c>
       <c r="N6" s="7">
-        <v>3509</v>
+        <v>441224</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>140</v>
@@ -2901,148 +2901,148 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>316</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>215541</v>
+        <v>1223</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>143</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>747</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H8" s="7">
-        <v>294</v>
-      </c>
-      <c r="I8" s="7">
-        <v>204956</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>3</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1970</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="M8" s="7">
-        <v>610</v>
-      </c>
-      <c r="N8" s="7">
-        <v>420497</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="D9" s="7">
-        <v>49999</v>
+        <v>16711</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="H9" s="7">
+        <v>25</v>
+      </c>
+      <c r="I9" s="7">
+        <v>17436</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="H9" s="7">
-        <v>67</v>
-      </c>
-      <c r="I9" s="7">
-        <v>48315</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>48</v>
+      </c>
+      <c r="N9" s="7">
+        <v>34147</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="M9" s="7">
-        <v>142</v>
-      </c>
-      <c r="N9" s="7">
-        <v>98313</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
-        <v>7</v>
+        <v>308</v>
       </c>
       <c r="D10" s="7">
-        <v>4565</v>
+        <v>222671</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>293</v>
+      </c>
+      <c r="I10" s="7">
+        <v>209656</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1881</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>601</v>
+      </c>
+      <c r="N10" s="7">
+        <v>432329</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="M10" s="7">
-        <v>9</v>
-      </c>
-      <c r="N10" s="7">
-        <v>6447</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>167</v>
@@ -3054,10 +3054,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>398</v>
+        <v>333</v>
       </c>
       <c r="D11" s="7">
-        <v>270105</v>
+        <v>240606</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>39</v>
@@ -3069,10 +3069,10 @@
         <v>39</v>
       </c>
       <c r="H11" s="7">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="I11" s="7">
-        <v>255152</v>
+        <v>227839</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>39</v>
@@ -3084,10 +3084,10 @@
         <v>39</v>
       </c>
       <c r="M11" s="7">
-        <v>761</v>
+        <v>652</v>
       </c>
       <c r="N11" s="7">
-        <v>525257</v>
+        <v>468446</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>39</v>
@@ -3101,16 +3101,16 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>308</v>
+        <v>7</v>
       </c>
       <c r="D12" s="7">
-        <v>222671</v>
+        <v>4565</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>168</v>
@@ -3122,127 +3122,127 @@
         <v>170</v>
       </c>
       <c r="H12" s="7">
-        <v>293</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>209656</v>
+        <v>1881</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>171</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>9</v>
+      </c>
+      <c r="N12" s="7">
+        <v>6447</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="M12" s="7">
-        <v>601</v>
-      </c>
-      <c r="N12" s="7">
-        <v>432329</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="D13" s="7">
-        <v>16711</v>
+        <v>49999</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>67</v>
+      </c>
+      <c r="I13" s="7">
+        <v>48315</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="H13" s="7">
-        <v>25</v>
-      </c>
-      <c r="I13" s="7">
-        <v>17436</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>142</v>
+      </c>
+      <c r="N13" s="7">
+        <v>98313</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="M13" s="7">
-        <v>48</v>
-      </c>
-      <c r="N13" s="7">
-        <v>34147</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>316</v>
       </c>
       <c r="D14" s="7">
-        <v>1223</v>
+        <v>215541</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>294</v>
+      </c>
+      <c r="I14" s="7">
+        <v>204956</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>747</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>189</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
+        <v>610</v>
       </c>
       <c r="N14" s="7">
-        <v>1970</v>
+        <v>420497</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>190</v>
@@ -3260,10 +3260,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>333</v>
+        <v>398</v>
       </c>
       <c r="D15" s="7">
-        <v>240606</v>
+        <v>270105</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>39</v>
@@ -3275,10 +3275,10 @@
         <v>39</v>
       </c>
       <c r="H15" s="7">
-        <v>319</v>
+        <v>363</v>
       </c>
       <c r="I15" s="7">
-        <v>227839</v>
+        <v>255152</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>39</v>
@@ -3290,10 +3290,10 @@
         <v>39</v>
       </c>
       <c r="M15" s="7">
-        <v>652</v>
+        <v>761</v>
       </c>
       <c r="N15" s="7">
-        <v>468446</v>
+        <v>525257</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>39</v>
@@ -3313,25 +3313,25 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>942</v>
+        <v>12</v>
       </c>
       <c r="D16" s="7">
-        <v>663691</v>
+        <v>7936</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>194</v>
       </c>
       <c r="H16" s="7">
-        <v>912</v>
+        <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>630359</v>
+        <v>3990</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>195</v>
@@ -3343,10 +3343,10 @@
         <v>197</v>
       </c>
       <c r="M16" s="7">
-        <v>1854</v>
+        <v>17</v>
       </c>
       <c r="N16" s="7">
-        <v>1294050</v>
+        <v>11925</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>198</v>
@@ -3361,7 +3361,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>108</v>
@@ -3412,28 +3412,28 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
-        <v>12</v>
+        <v>942</v>
       </c>
       <c r="D18" s="7">
-        <v>7936</v>
+        <v>663691</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>210</v>
       </c>
       <c r="H18" s="7">
-        <v>5</v>
+        <v>912</v>
       </c>
       <c r="I18" s="7">
-        <v>3990</v>
+        <v>630359</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>211</v>
@@ -3445,10 +3445,10 @@
         <v>213</v>
       </c>
       <c r="M18" s="7">
-        <v>17</v>
+        <v>1854</v>
       </c>
       <c r="N18" s="7">
-        <v>11925</v>
+        <v>1294050</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>214</v>
@@ -3527,7 +3527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F186A6-2F5B-4C2F-83D2-01C50AE0C922}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C895EAD-E39F-4BE1-A36C-ECC93BF44841}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3645,55 +3645,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>303</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>200480</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" s="7">
+        <v>3</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1890</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="H4" s="7">
-        <v>307</v>
-      </c>
-      <c r="I4" s="7">
-        <v>189539</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>3</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1890</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="M4" s="7">
-        <v>610</v>
-      </c>
-      <c r="N4" s="7">
-        <v>390019</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>10</v>
@@ -3702,13 +3702,13 @@
         <v>7047</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -3717,13 +3717,13 @@
         <v>4251</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M5" s="7">
         <v>17</v>
@@ -3732,61 +3732,61 @@
         <v>11298</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>303</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>200480</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>89</v>
+        <v>231</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>131</v>
+        <v>232</v>
       </c>
       <c r="H6" s="7">
-        <v>3</v>
+        <v>307</v>
       </c>
       <c r="I6" s="7">
-        <v>1890</v>
+        <v>189539</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>610</v>
+      </c>
+      <c r="N6" s="7">
+        <v>390019</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="M6" s="7">
-        <v>3</v>
-      </c>
-      <c r="N6" s="7">
-        <v>1890</v>
-      </c>
-      <c r="O6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>238</v>
@@ -3851,151 +3851,151 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>317</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>235350</v>
+        <v>713</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>239</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H8" s="7">
+        <v>2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1157</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="M8" s="7">
+        <v>3</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1871</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="H8" s="7">
-        <v>316</v>
-      </c>
-      <c r="I8" s="7">
-        <v>226743</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="M8" s="7">
-        <v>633</v>
-      </c>
-      <c r="N8" s="7">
-        <v>462093</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>246</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>247</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="D9" s="7">
-        <v>43102</v>
+        <v>15275</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H9" s="7">
+        <v>26</v>
+      </c>
+      <c r="I9" s="7">
+        <v>17214</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="M9" s="7">
+        <v>49</v>
+      </c>
+      <c r="N9" s="7">
+        <v>32488</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="H9" s="7">
-        <v>54</v>
-      </c>
-      <c r="I9" s="7">
-        <v>37593</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="M9" s="7">
-        <v>114</v>
-      </c>
-      <c r="N9" s="7">
-        <v>80695</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>339</v>
       </c>
       <c r="D10" s="7">
-        <v>2515</v>
+        <v>234064</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H10" s="7">
+        <v>329</v>
+      </c>
+      <c r="I10" s="7">
+        <v>215116</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="M10" s="7">
+        <v>668</v>
+      </c>
+      <c r="N10" s="7">
+        <v>449181</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="7">
-        <v>5</v>
-      </c>
-      <c r="I10" s="7">
-        <v>3434</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M10" s="7">
-        <v>8</v>
-      </c>
-      <c r="N10" s="7">
-        <v>5949</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4004,10 +4004,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="D11" s="7">
-        <v>280967</v>
+        <v>250052</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>39</v>
@@ -4019,10 +4019,10 @@
         <v>39</v>
       </c>
       <c r="H11" s="7">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="I11" s="7">
-        <v>267770</v>
+        <v>233487</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>39</v>
@@ -4034,10 +4034,10 @@
         <v>39</v>
       </c>
       <c r="M11" s="7">
-        <v>755</v>
+        <v>720</v>
       </c>
       <c r="N11" s="7">
-        <v>548737</v>
+        <v>483540</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>39</v>
@@ -4051,157 +4051,157 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>339</v>
+        <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>234064</v>
+        <v>2515</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="7">
+        <v>5</v>
+      </c>
+      <c r="I12" s="7">
+        <v>3434</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="M12" s="7">
+        <v>8</v>
+      </c>
+      <c r="N12" s="7">
+        <v>5949</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="H12" s="7">
-        <v>329</v>
-      </c>
-      <c r="I12" s="7">
-        <v>215116</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="M12" s="7">
-        <v>668</v>
-      </c>
-      <c r="N12" s="7">
-        <v>449181</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="D13" s="7">
-        <v>15275</v>
+        <v>43102</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H13" s="7">
+        <v>54</v>
+      </c>
+      <c r="I13" s="7">
+        <v>37593</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="M13" s="7">
+        <v>114</v>
+      </c>
+      <c r="N13" s="7">
+        <v>80695</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="H13" s="7">
-        <v>26</v>
-      </c>
-      <c r="I13" s="7">
-        <v>17214</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="M13" s="7">
-        <v>49</v>
-      </c>
-      <c r="N13" s="7">
-        <v>32488</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>317</v>
       </c>
       <c r="D14" s="7">
-        <v>713</v>
+        <v>235350</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H14" s="7">
+        <v>316</v>
+      </c>
+      <c r="I14" s="7">
+        <v>226743</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="M14" s="7">
+        <v>633</v>
+      </c>
+      <c r="N14" s="7">
+        <v>462093</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1157</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="M14" s="7">
-        <v>3</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1871</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,10 +4210,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D15" s="7">
-        <v>250052</v>
+        <v>280967</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>39</v>
@@ -4225,10 +4225,10 @@
         <v>39</v>
       </c>
       <c r="H15" s="7">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="I15" s="7">
-        <v>233487</v>
+        <v>267770</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>39</v>
@@ -4240,10 +4240,10 @@
         <v>39</v>
       </c>
       <c r="M15" s="7">
-        <v>720</v>
+        <v>755</v>
       </c>
       <c r="N15" s="7">
-        <v>483540</v>
+        <v>548737</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>39</v>
@@ -4263,55 +4263,55 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>959</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>669894</v>
+        <v>3228</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>285</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>10</v>
+      </c>
+      <c r="I16" s="7">
+        <v>6482</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="H16" s="7">
-        <v>952</v>
-      </c>
-      <c r="I16" s="7">
-        <v>631399</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M16" s="7">
+        <v>14</v>
+      </c>
+      <c r="N16" s="7">
+        <v>9710</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="M16" s="7">
-        <v>1911</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1301293</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>93</v>
@@ -4320,13 +4320,13 @@
         <v>65424</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H17" s="7">
         <v>87</v>
@@ -4335,13 +4335,13 @@
         <v>59057</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="M17" s="7">
         <v>180</v>
@@ -4350,61 +4350,61 @@
         <v>124482</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
-        <v>4</v>
+        <v>959</v>
       </c>
       <c r="D18" s="7">
-        <v>3228</v>
+        <v>669894</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H18" s="7">
+        <v>952</v>
+      </c>
+      <c r="I18" s="7">
+        <v>631399</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="H18" s="7">
-        <v>10</v>
-      </c>
-      <c r="I18" s="7">
-        <v>6482</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>1911</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1301293</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="L18" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="M18" s="7">
-        <v>14</v>
-      </c>
-      <c r="N18" s="7">
-        <v>9710</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>308</v>
@@ -4477,7 +4477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA01696-8E58-4B05-90A3-286C0B152732}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA897D34-F0F8-4120-B824-A901FBAA0B34}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4595,55 +4595,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>206</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>108276</v>
+        <v>2416</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>310</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>4</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1970</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="H4" s="7">
-        <v>184</v>
-      </c>
-      <c r="I4" s="7">
-        <v>95957</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>10</v>
+      </c>
+      <c r="N4" s="7">
+        <v>4386</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="M4" s="7">
-        <v>390</v>
-      </c>
-      <c r="N4" s="7">
-        <v>204234</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>14</v>
@@ -4652,13 +4652,13 @@
         <v>6824</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -4667,13 +4667,13 @@
         <v>5876</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="M5" s="7">
         <v>25</v>
@@ -4682,58 +4682,58 @@
         <v>12700</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
-        <v>6</v>
+        <v>206</v>
       </c>
       <c r="D6" s="7">
-        <v>2416</v>
+        <v>108276</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="H6" s="7">
+        <v>184</v>
+      </c>
+      <c r="I6" s="7">
+        <v>95957</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="H6" s="7">
-        <v>4</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1970</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>390</v>
+      </c>
+      <c r="N6" s="7">
+        <v>204234</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="M6" s="7">
-        <v>10</v>
-      </c>
-      <c r="N6" s="7">
-        <v>4386</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>331</v>
@@ -4801,151 +4801,151 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>421</v>
+        <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>356861</v>
+        <v>2093</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>333</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>889</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="M8" s="7">
+        <v>5</v>
+      </c>
+      <c r="N8" s="7">
+        <v>2981</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="H8" s="7">
-        <v>411</v>
-      </c>
-      <c r="I8" s="7">
-        <v>315268</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="M8" s="7">
-        <v>832</v>
-      </c>
-      <c r="N8" s="7">
-        <v>672129</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="D9" s="7">
-        <v>44992</v>
+        <v>25024</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H9" s="7">
+        <v>28</v>
+      </c>
+      <c r="I9" s="7">
+        <v>18572</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="M9" s="7">
+        <v>58</v>
+      </c>
+      <c r="N9" s="7">
+        <v>43596</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="H9" s="7">
-        <v>47</v>
-      </c>
-      <c r="I9" s="7">
-        <v>32928</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="M9" s="7">
-        <v>104</v>
-      </c>
-      <c r="N9" s="7">
-        <v>77920</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>238</v>
       </c>
       <c r="D10" s="7">
-        <v>858</v>
+        <v>177938</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="H10" s="7">
+        <v>251</v>
+      </c>
+      <c r="I10" s="7">
+        <v>178807</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="H10" s="7">
-        <v>3</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1417</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>489</v>
+      </c>
+      <c r="N10" s="7">
+        <v>356746</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="M10" s="7">
-        <v>4</v>
-      </c>
-      <c r="N10" s="7">
-        <v>2275</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4954,10 +4954,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>479</v>
+        <v>271</v>
       </c>
       <c r="D11" s="7">
-        <v>402710</v>
+        <v>205055</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>39</v>
@@ -4969,10 +4969,10 @@
         <v>39</v>
       </c>
       <c r="H11" s="7">
-        <v>461</v>
+        <v>281</v>
       </c>
       <c r="I11" s="7">
-        <v>349614</v>
+        <v>198267</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>39</v>
@@ -4984,10 +4984,10 @@
         <v>39</v>
       </c>
       <c r="M11" s="7">
-        <v>940</v>
+        <v>552</v>
       </c>
       <c r="N11" s="7">
-        <v>752324</v>
+        <v>403323</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>39</v>
@@ -5001,151 +5001,151 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>238</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>177938</v>
+        <v>858</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>3</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1417</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="H12" s="7">
-        <v>251</v>
-      </c>
-      <c r="I12" s="7">
-        <v>178807</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>4</v>
+      </c>
+      <c r="N12" s="7">
+        <v>2275</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="M12" s="7">
-        <v>489</v>
-      </c>
-      <c r="N12" s="7">
-        <v>356746</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>361</v>
-      </c>
       <c r="Q12" s="7" t="s">
-        <v>362</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D13" s="7">
-        <v>25024</v>
+        <v>44992</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H13" s="7">
+        <v>47</v>
+      </c>
+      <c r="I13" s="7">
+        <v>32928</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>104</v>
+      </c>
+      <c r="N13" s="7">
+        <v>77920</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="H13" s="7">
-        <v>28</v>
-      </c>
-      <c r="I13" s="7">
-        <v>18572</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="M13" s="7">
-        <v>58</v>
-      </c>
-      <c r="N13" s="7">
-        <v>43596</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>421</v>
       </c>
       <c r="D14" s="7">
-        <v>2093</v>
+        <v>356861</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H14" s="7">
+        <v>411</v>
+      </c>
+      <c r="I14" s="7">
+        <v>315268</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>832</v>
+      </c>
+      <c r="N14" s="7">
+        <v>672129</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>889</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M14" s="7">
-        <v>5</v>
-      </c>
-      <c r="N14" s="7">
-        <v>2981</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>373</v>
@@ -5160,10 +5160,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>271</v>
+        <v>479</v>
       </c>
       <c r="D15" s="7">
-        <v>205055</v>
+        <v>402710</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>39</v>
@@ -5175,10 +5175,10 @@
         <v>39</v>
       </c>
       <c r="H15" s="7">
-        <v>281</v>
+        <v>461</v>
       </c>
       <c r="I15" s="7">
-        <v>198267</v>
+        <v>349614</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>39</v>
@@ -5190,10 +5190,10 @@
         <v>39</v>
       </c>
       <c r="M15" s="7">
-        <v>552</v>
+        <v>940</v>
       </c>
       <c r="N15" s="7">
-        <v>403323</v>
+        <v>752324</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>39</v>
@@ -5213,55 +5213,55 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>865</v>
+        <v>10</v>
       </c>
       <c r="D16" s="7">
-        <v>643076</v>
+        <v>5366</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>9</v>
+      </c>
+      <c r="I16" s="7">
+        <v>4276</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="H16" s="7">
-        <v>846</v>
-      </c>
-      <c r="I16" s="7">
-        <v>590032</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>19</v>
+      </c>
+      <c r="N16" s="7">
+        <v>9642</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="M16" s="7">
-        <v>1711</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1233109</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>101</v>
@@ -5270,13 +5270,13 @@
         <v>76840</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H17" s="7">
         <v>86</v>
@@ -5285,13 +5285,13 @@
         <v>57376</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M17" s="7">
         <v>187</v>
@@ -5300,61 +5300,61 @@
         <v>134216</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
-        <v>10</v>
+        <v>865</v>
       </c>
       <c r="D18" s="7">
-        <v>5366</v>
+        <v>643076</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>164</v>
+        <v>390</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H18" s="7">
+        <v>846</v>
+      </c>
+      <c r="I18" s="7">
+        <v>590032</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="H18" s="7">
-        <v>9</v>
-      </c>
-      <c r="I18" s="7">
-        <v>4276</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>1711</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1233109</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="M18" s="7">
-        <v>19</v>
-      </c>
-      <c r="N18" s="7">
-        <v>9642</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>398</v>

--- a/data/trans_orig/IP26C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP26C-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3C7E2CF-20B6-4C8F-A09F-0CE96A7D5B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E906476A-3C68-41E7-9C32-CCF65D56A128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{1EA1D738-3ED2-43DA-B6E9-0DC2E474769E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{56905D9F-4BD7-45C8-AE12-039A22F598AC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="456">
   <si>
     <t>Menores según si han sufrido alguna quemadura solar en el último año en 2007 (Tasa respuesta: 99,43%)</t>
   </si>
@@ -68,1174 +68,1345 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>Si sin ampollas</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
   </si>
   <si>
     <t>Sí con ampollas</t>
   </si>
   <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si han sufrido alguna quemadura solar en el último año en 2012 (Tasa respuesta: 98,9%)</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>Menores según si han sufrido alguna quemadura solar en el último año en 2015 (Tasa respuesta: 99,01%)</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>Menores según si han sufrido alguna quemadura solar en el último año en 2023 (Tasa respuesta: 99,84%)</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
   </si>
   <si>
     <t>1,42%</t>
   </si>
   <si>
-    <t>Si sin ampollas</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>Menores según si han sufrido alguna quemadura solar en el último año en 2012 (Tasa respuesta: 98,9%)</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
   </si>
   <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
   </si>
   <si>
     <t>0,42%</t>
   </si>
   <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>Menores según si han sufrido alguna quemadura solar en el último año en 2015 (Tasa respuesta: 99,01%)</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>Menores según si han sufrido alguna quemadura solar en el último año en 2023 (Tasa respuesta: 99,84%)</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
+    <t>1,09%</t>
   </si>
 </sst>
 </file>
@@ -1246,7 +1417,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1342,39 +1513,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1426,7 +1597,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1537,13 +1708,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1552,6 +1716,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1616,19 +1787,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA741061-344B-4FE5-94CD-714A52D69A63}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8A3A4D-3683-46D2-A98F-E7160F26F687}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1745,10 +1936,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>178</v>
       </c>
       <c r="D4" s="7">
-        <v>1174</v>
+        <v>118692</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1760,25 +1951,25 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>157</v>
       </c>
       <c r="I4" s="7">
-        <v>1216</v>
+        <v>102964</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M4" s="7">
-        <v>4</v>
+        <v>335</v>
       </c>
       <c r="N4" s="7">
-        <v>2390</v>
+        <v>221656</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1787,109 +1978,109 @@
         <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="7">
-        <v>4</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2672</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="7">
-        <v>3</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1772</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="7">
-        <v>7</v>
-      </c>
-      <c r="N5" s="7">
-        <v>4444</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>216628</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>312</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>205216</v>
+        <v>1216</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>636</v>
+        <v>2</v>
       </c>
       <c r="N6" s="7">
-        <v>421844</v>
+        <v>1216</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1898,204 +2089,204 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>330</v>
+        <v>178</v>
       </c>
       <c r="D7" s="7">
-        <v>220474</v>
+        <v>118692</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>317</v>
+        <v>159</v>
       </c>
       <c r="I7" s="7">
-        <v>208204</v>
+        <v>104180</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>647</v>
+        <v>337</v>
       </c>
       <c r="N7" s="7">
-        <v>428678</v>
+        <v>222872</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>361</v>
       </c>
       <c r="D8" s="7">
-        <v>2500</v>
+        <v>240026</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>361</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>241610</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>722</v>
       </c>
       <c r="N8" s="7">
-        <v>2500</v>
+        <v>481636</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D9" s="7">
-        <v>12573</v>
+        <v>9371</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H9" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I9" s="7">
-        <v>12473</v>
+        <v>11595</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="M9" s="7">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N9" s="7">
-        <v>25046</v>
+        <v>20966</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7">
-        <v>305</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>201580</v>
+        <v>3674</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H10" s="7">
-        <v>285</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>192749</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="M10" s="7">
-        <v>590</v>
+        <v>6</v>
       </c>
       <c r="N10" s="7">
-        <v>394329</v>
+        <v>3674</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2104,204 +2295,204 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>328</v>
+        <v>381</v>
       </c>
       <c r="D11" s="7">
-        <v>216652</v>
+        <v>253071</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>304</v>
+        <v>379</v>
       </c>
       <c r="I11" s="7">
-        <v>205222</v>
+        <v>253205</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>632</v>
+        <v>760</v>
       </c>
       <c r="N11" s="7">
-        <v>421874</v>
+        <v>506276</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>4</v>
+        <v>192</v>
       </c>
       <c r="D12" s="7">
-        <v>2574</v>
+        <v>128369</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H12" s="7">
-        <v>4</v>
+        <v>168</v>
       </c>
       <c r="I12" s="7">
-        <v>2789</v>
+        <v>112040</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="M12" s="7">
-        <v>8</v>
+        <v>360</v>
       </c>
       <c r="N12" s="7">
-        <v>5362</v>
+        <v>240409</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="7">
+        <v>18</v>
+      </c>
+      <c r="D13" s="7">
+        <v>11811</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="7">
+        <v>23</v>
+      </c>
+      <c r="I13" s="7">
+        <v>15508</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="7">
-        <v>46108</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H13" s="7">
-        <v>89</v>
-      </c>
-      <c r="I13" s="7">
-        <v>60658</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="M13" s="7">
-        <v>158</v>
+        <v>41</v>
       </c>
       <c r="N13" s="7">
-        <v>106765</v>
+        <v>27320</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7">
-        <v>346</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>230748</v>
+        <v>631</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
-        <v>301</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>202156</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="M14" s="7">
-        <v>647</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>432904</v>
+        <v>631</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2310,204 +2501,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>419</v>
+        <v>211</v>
       </c>
       <c r="D15" s="7">
-        <v>279429</v>
+        <v>140811</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>394</v>
+        <v>191</v>
       </c>
       <c r="I15" s="7">
-        <v>265603</v>
+        <v>127548</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>813</v>
+        <v>402</v>
       </c>
       <c r="N15" s="7">
-        <v>545032</v>
+        <v>268359</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>10</v>
+        <v>244</v>
       </c>
       <c r="D16" s="7">
-        <v>6248</v>
+        <v>161867</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H16" s="7">
-        <v>6</v>
+        <v>212</v>
       </c>
       <c r="I16" s="7">
-        <v>4005</v>
+        <v>143509</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="M16" s="7">
-        <v>16</v>
+        <v>456</v>
       </c>
       <c r="N16" s="7">
-        <v>10253</v>
+        <v>305376</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>60</v>
+      </c>
+      <c r="D17" s="7">
+        <v>40170</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="7">
+        <v>70</v>
+      </c>
+      <c r="I17" s="7">
+        <v>47799</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="7">
-        <v>61352</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H17" s="7">
-        <v>111</v>
-      </c>
-      <c r="I17" s="7">
-        <v>74903</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="M17" s="7">
-        <v>203</v>
+        <v>130</v>
       </c>
       <c r="N17" s="7">
-        <v>136255</v>
+        <v>87969</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7">
-        <v>975</v>
+        <v>3</v>
       </c>
       <c r="D18" s="7">
-        <v>648955</v>
+        <v>1943</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="H18" s="7">
-        <v>898</v>
+        <v>4</v>
       </c>
       <c r="I18" s="7">
-        <v>600121</v>
+        <v>2789</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="M18" s="7">
-        <v>1873</v>
+        <v>7</v>
       </c>
       <c r="N18" s="7">
-        <v>1249077</v>
+        <v>4732</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2516,55 +2707,267 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>307</v>
+      </c>
+      <c r="D19" s="7">
+        <v>203980</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7">
+        <v>286</v>
+      </c>
+      <c r="I19" s="7">
+        <v>194097</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="7">
+        <v>593</v>
+      </c>
+      <c r="N19" s="7">
+        <v>398077</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
+        <v>975</v>
+      </c>
+      <c r="D20" s="7">
+        <v>648955</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="7">
+        <v>898</v>
+      </c>
+      <c r="I20" s="7">
+        <v>600121</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M20" s="7">
+        <v>1873</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1249077</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="7">
+        <v>92</v>
+      </c>
+      <c r="D21" s="7">
+        <v>61352</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H21" s="7">
+        <v>111</v>
+      </c>
+      <c r="I21" s="7">
+        <v>74903</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M21" s="7">
+        <v>203</v>
+      </c>
+      <c r="N21" s="7">
+        <v>136255</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="7">
+        <v>10</v>
+      </c>
+      <c r="D22" s="7">
+        <v>6248</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H22" s="7">
+        <v>6</v>
+      </c>
+      <c r="I22" s="7">
+        <v>4005</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="M22" s="7">
+        <v>16</v>
+      </c>
+      <c r="N22" s="7">
+        <v>10253</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
         <v>1077</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D23" s="7">
         <v>716555</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="E23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="7">
         <v>1015</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I23" s="7">
         <v>679029</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M19" s="7">
+      <c r="J23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23" s="7">
         <v>2092</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N23" s="7">
         <v>1395584</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>39</v>
+      <c r="O23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2577,8 +2980,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE85FF3E-E77D-494B-9FA8-FEB494949A08}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46924BCA-A48B-40ED-80B5-DD2E8334989D}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2594,7 +2997,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2695,151 +3098,151 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>194</v>
       </c>
       <c r="D4" s="7">
-        <v>2147</v>
+        <v>137038</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>210</v>
       </c>
       <c r="I4" s="7">
-        <v>1361</v>
+        <v>140439</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>404</v>
       </c>
       <c r="N4" s="7">
-        <v>3509</v>
+        <v>277477</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>5</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3298</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1310</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="7">
-        <v>10</v>
-      </c>
-      <c r="D5" s="7">
-        <v>6637</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="L5" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M5" s="7">
+        <v>7</v>
+      </c>
+      <c r="N5" s="7">
+        <v>4607</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="H5" s="7">
-        <v>5</v>
-      </c>
-      <c r="I5" s="7">
-        <v>3478</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="M5" s="7">
-        <v>15</v>
-      </c>
-      <c r="N5" s="7">
-        <v>10115</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>131</v>
-      </c>
       <c r="P5" s="7" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
-        <v>318</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>225478</v>
+        <v>1400</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="H6" s="7">
-        <v>325</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>215746</v>
+        <v>734</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="M6" s="7">
-        <v>643</v>
+        <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>441224</v>
+        <v>2134</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2848,204 +3251,204 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>331</v>
+        <v>201</v>
       </c>
       <c r="D7" s="7">
-        <v>234263</v>
+        <v>141736</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>332</v>
+        <v>213</v>
       </c>
       <c r="I7" s="7">
-        <v>220585</v>
+        <v>142483</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>663</v>
+        <v>414</v>
       </c>
       <c r="N7" s="7">
-        <v>454848</v>
+        <v>284219</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>351</v>
       </c>
       <c r="D8" s="7">
-        <v>1223</v>
+        <v>252896</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>319</v>
       </c>
       <c r="I8" s="7">
-        <v>747</v>
+        <v>221276</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="M8" s="7">
-        <v>3</v>
+        <v>670</v>
       </c>
       <c r="N8" s="7">
-        <v>1970</v>
+        <v>474173</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D9" s="7">
-        <v>16711</v>
+        <v>12708</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="H9" s="7">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I9" s="7">
-        <v>17436</v>
+        <v>12069</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="M9" s="7">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N9" s="7">
-        <v>34147</v>
+        <v>24777</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7">
-        <v>308</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>222671</v>
+        <v>1355</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>19</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="H10" s="7">
-        <v>293</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>209656</v>
+        <v>627</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="M10" s="7">
-        <v>601</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>432329</v>
+        <v>1982</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3054,204 +3457,204 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="D11" s="7">
-        <v>240606</v>
+        <v>266959</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="I11" s="7">
-        <v>227839</v>
+        <v>233972</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>652</v>
+        <v>708</v>
       </c>
       <c r="N11" s="7">
-        <v>468446</v>
+        <v>500932</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>7</v>
+        <v>200</v>
       </c>
       <c r="D12" s="7">
-        <v>4565</v>
+        <v>139349</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="I12" s="7">
-        <v>1881</v>
+        <v>138174</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="M12" s="7">
-        <v>9</v>
+        <v>396</v>
       </c>
       <c r="N12" s="7">
-        <v>6447</v>
+        <v>277523</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="7">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="D13" s="7">
-        <v>49999</v>
+        <v>17285</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="H13" s="7">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="I13" s="7">
-        <v>48315</v>
+        <v>17206</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="M13" s="7">
-        <v>142</v>
+        <v>50</v>
       </c>
       <c r="N13" s="7">
-        <v>98313</v>
+        <v>34491</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7">
-        <v>316</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>215541</v>
+        <v>1937</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="H14" s="7">
-        <v>294</v>
+        <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>204956</v>
+        <v>1663</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="M14" s="7">
-        <v>610</v>
+        <v>5</v>
       </c>
       <c r="N14" s="7">
-        <v>420497</v>
+        <v>3599</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>101</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3260,204 +3663,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>398</v>
+        <v>228</v>
       </c>
       <c r="D15" s="7">
-        <v>270105</v>
+        <v>158571</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>363</v>
+        <v>223</v>
       </c>
       <c r="I15" s="7">
-        <v>255152</v>
+        <v>157043</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>761</v>
+        <v>451</v>
       </c>
       <c r="N15" s="7">
-        <v>525257</v>
+        <v>315614</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="D16" s="7">
-        <v>7936</v>
+        <v>134408</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>16</v>
+        <v>203</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="H16" s="7">
-        <v>5</v>
+        <v>187</v>
       </c>
       <c r="I16" s="7">
-        <v>3990</v>
+        <v>130468</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>195</v>
+        <v>85</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="M16" s="7">
-        <v>17</v>
+        <v>384</v>
       </c>
       <c r="N16" s="7">
-        <v>11925</v>
+        <v>264877</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="D17" s="7">
-        <v>73347</v>
+        <v>40057</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="H17" s="7">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="I17" s="7">
-        <v>69229</v>
+        <v>38644</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="M17" s="7">
-        <v>205</v>
+        <v>113</v>
       </c>
       <c r="N17" s="7">
-        <v>142576</v>
+        <v>78700</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7">
-        <v>942</v>
+        <v>5</v>
       </c>
       <c r="D18" s="7">
-        <v>663691</v>
+        <v>3244</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>160</v>
+        <v>219</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H18" s="7">
-        <v>912</v>
+        <v>1</v>
       </c>
       <c r="I18" s="7">
-        <v>630359</v>
+        <v>966</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>211</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="M18" s="7">
-        <v>1854</v>
+        <v>6</v>
       </c>
       <c r="N18" s="7">
-        <v>1294050</v>
+        <v>4210</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>215</v>
+        <v>128</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,55 +3869,267 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>262</v>
+      </c>
+      <c r="D19" s="7">
+        <v>177709</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7">
+        <v>241</v>
+      </c>
+      <c r="I19" s="7">
+        <v>170078</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="7">
+        <v>503</v>
+      </c>
+      <c r="N19" s="7">
+        <v>347787</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
+        <v>942</v>
+      </c>
+      <c r="D20" s="7">
+        <v>663691</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H20" s="7">
+        <v>912</v>
+      </c>
+      <c r="I20" s="7">
+        <v>630359</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="M20" s="7">
+        <v>1854</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1294050</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="7">
+        <v>108</v>
+      </c>
+      <c r="D21" s="7">
+        <v>73347</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H21" s="7">
+        <v>97</v>
+      </c>
+      <c r="I21" s="7">
+        <v>69229</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="M21" s="7">
+        <v>205</v>
+      </c>
+      <c r="N21" s="7">
+        <v>142576</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="7">
+        <v>12</v>
+      </c>
+      <c r="D22" s="7">
+        <v>7936</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H22" s="7">
+        <v>5</v>
+      </c>
+      <c r="I22" s="7">
+        <v>3990</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="7">
+        <v>17</v>
+      </c>
+      <c r="N22" s="7">
+        <v>11925</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
         <v>1062</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D23" s="7">
         <v>744974</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="E23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="7">
         <v>1014</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I23" s="7">
         <v>703577</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M19" s="7">
+      <c r="J23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23" s="7">
         <v>2076</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N23" s="7">
         <v>1448551</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>39</v>
+      <c r="O23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3527,8 +4142,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C895EAD-E39F-4BE1-A36C-ECC93BF44841}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E37A853-9F6E-4EBB-BD86-53C96937FF1C}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3544,7 +4159,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3645,151 +4260,151 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>117637</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>44</v>
+        <v>249</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>198</v>
       </c>
       <c r="I4" s="7">
-        <v>1890</v>
+        <v>123718</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>218</v>
+        <v>17</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>118</v>
+        <v>250</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>376</v>
       </c>
       <c r="N4" s="7">
-        <v>1890</v>
+        <v>241355</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>148</v>
+        <v>253</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>890</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="7">
-        <v>10</v>
-      </c>
-      <c r="D5" s="7">
-        <v>7047</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>223</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>4251</v>
+        <v>1690</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>225</v>
+        <v>173</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="M5" s="7">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="N5" s="7">
-        <v>11298</v>
+        <v>2580</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
-        <v>303</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>200480</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>231</v>
+        <v>20</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>232</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>307</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>189539</v>
+        <v>659</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>233</v>
+        <v>149</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>234</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="M6" s="7">
-        <v>610</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>390019</v>
+        <v>659</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>237</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3798,204 +4413,204 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>313</v>
+        <v>179</v>
       </c>
       <c r="D7" s="7">
-        <v>207527</v>
+        <v>118527</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>317</v>
+        <v>202</v>
       </c>
       <c r="I7" s="7">
-        <v>195680</v>
+        <v>126067</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>630</v>
+        <v>381</v>
       </c>
       <c r="N7" s="7">
-        <v>403207</v>
+        <v>244594</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>356</v>
       </c>
       <c r="D8" s="7">
-        <v>713</v>
+        <v>242019</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>12</v>
+        <v>264</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>168</v>
+        <v>265</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>312</v>
       </c>
       <c r="I8" s="7">
-        <v>1157</v>
+        <v>197697</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>199</v>
+        <v>266</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>12</v>
+        <v>267</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>128</v>
+        <v>268</v>
       </c>
       <c r="M8" s="7">
-        <v>3</v>
+        <v>668</v>
       </c>
       <c r="N8" s="7">
-        <v>1871</v>
+        <v>439716</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>72</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7">
         <v>23</v>
       </c>
       <c r="D9" s="7">
-        <v>15275</v>
+        <v>15329</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="H9" s="7">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I9" s="7">
-        <v>17214</v>
+        <v>9700</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>246</v>
+        <v>99</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="M9" s="7">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="N9" s="7">
-        <v>32488</v>
+        <v>25029</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7">
-        <v>339</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>234064</v>
+        <v>713</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>252</v>
+        <v>19</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="H10" s="7">
-        <v>329</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>215116</v>
+        <v>1910</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>255</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="M10" s="7">
-        <v>668</v>
+        <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>449181</v>
+        <v>2623</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4004,204 +4619,204 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D11" s="7">
-        <v>250052</v>
+        <v>258061</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>357</v>
+        <v>330</v>
       </c>
       <c r="I11" s="7">
-        <v>233487</v>
+        <v>209307</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N11" s="7">
-        <v>483540</v>
+        <v>467368</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>3</v>
+        <v>232</v>
       </c>
       <c r="D12" s="7">
-        <v>2515</v>
+        <v>166138</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>260</v>
+        <v>113</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>25</v>
+        <v>286</v>
       </c>
       <c r="H12" s="7">
-        <v>5</v>
+        <v>236</v>
       </c>
       <c r="I12" s="7">
-        <v>3434</v>
+        <v>163646</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>288</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="M12" s="7">
-        <v>8</v>
+        <v>468</v>
       </c>
       <c r="N12" s="7">
-        <v>5949</v>
+        <v>329784</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="7">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7">
-        <v>43102</v>
+        <v>21353</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>268</v>
+        <v>167</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="H13" s="7">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="I13" s="7">
-        <v>37593</v>
+        <v>24139</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="M13" s="7">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="N13" s="7">
-        <v>80695</v>
+        <v>45492</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7">
-        <v>317</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>235350</v>
+        <v>1081</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>276</v>
+        <v>23</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>277</v>
+        <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="H14" s="7">
-        <v>316</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>226743</v>
+        <v>479</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="M14" s="7">
+        <v>2</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1560</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="M14" s="7">
-        <v>633</v>
-      </c>
-      <c r="N14" s="7">
-        <v>462093</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,204 +4825,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>380</v>
+        <v>263</v>
       </c>
       <c r="D15" s="7">
-        <v>280967</v>
+        <v>188572</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>375</v>
+        <v>271</v>
       </c>
       <c r="I15" s="7">
-        <v>267770</v>
+        <v>188263</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>755</v>
+        <v>534</v>
       </c>
       <c r="N15" s="7">
-        <v>548737</v>
+        <v>376836</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>193</v>
       </c>
       <c r="D16" s="7">
-        <v>3228</v>
+        <v>144100</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>285</v>
+        <v>181</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>241</v>
+        <v>304</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="H16" s="7">
-        <v>10</v>
+        <v>206</v>
       </c>
       <c r="I16" s="7">
-        <v>6482</v>
+        <v>146339</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>124</v>
+        <v>308</v>
       </c>
       <c r="M16" s="7">
-        <v>14</v>
+        <v>399</v>
       </c>
       <c r="N16" s="7">
-        <v>9710</v>
+        <v>290438</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="D17" s="7">
-        <v>65424</v>
+        <v>27852</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="H17" s="7">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="I17" s="7">
-        <v>59057</v>
+        <v>23528</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="M17" s="7">
-        <v>180</v>
+        <v>74</v>
       </c>
       <c r="N17" s="7">
-        <v>124482</v>
+        <v>51380</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7">
-        <v>959</v>
+        <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>669894</v>
+        <v>1434</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>301</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="H18" s="7">
-        <v>952</v>
+        <v>5</v>
       </c>
       <c r="I18" s="7">
-        <v>631399</v>
+        <v>3434</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>305</v>
+        <v>221</v>
       </c>
       <c r="M18" s="7">
-        <v>1911</v>
+        <v>7</v>
       </c>
       <c r="N18" s="7">
-        <v>1301293</v>
+        <v>4868</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4416,55 +5031,267 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>234</v>
+      </c>
+      <c r="D19" s="7">
+        <v>173385</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7">
+        <v>246</v>
+      </c>
+      <c r="I19" s="7">
+        <v>173301</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="7">
+        <v>480</v>
+      </c>
+      <c r="N19" s="7">
+        <v>346686</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
+        <v>959</v>
+      </c>
+      <c r="D20" s="7">
+        <v>669894</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H20" s="7">
+        <v>952</v>
+      </c>
+      <c r="I20" s="7">
+        <v>631399</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="M20" s="7">
+        <v>1911</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1301293</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="7">
+        <v>93</v>
+      </c>
+      <c r="D21" s="7">
+        <v>65424</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H21" s="7">
+        <v>87</v>
+      </c>
+      <c r="I21" s="7">
+        <v>59057</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="M21" s="7">
+        <v>180</v>
+      </c>
+      <c r="N21" s="7">
+        <v>124482</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="7">
+        <v>4</v>
+      </c>
+      <c r="D22" s="7">
+        <v>3228</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H22" s="7">
+        <v>10</v>
+      </c>
+      <c r="I22" s="7">
+        <v>6482</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="M22" s="7">
+        <v>14</v>
+      </c>
+      <c r="N22" s="7">
+        <v>9710</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
         <v>1056</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D23" s="7">
         <v>738546</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="E23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="7">
         <v>1049</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I23" s="7">
         <v>696938</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M19" s="7">
+      <c r="J23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23" s="7">
         <v>2105</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N23" s="7">
         <v>1435484</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>39</v>
+      <c r="O23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4477,8 +5304,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA897D34-F0F8-4120-B824-A901FBAA0B34}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381D541B-23C9-48AD-851E-B5F96DE126C4}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4494,7 +5321,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4595,151 +5422,151 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="D4" s="7">
-        <v>2416</v>
+        <v>54843</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>93</v>
+        <v>353</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="I4" s="7">
-        <v>1970</v>
+        <v>52988</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>194</v>
+        <v>355</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>195</v>
+        <v>356</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>312</v>
+        <v>357</v>
       </c>
       <c r="M4" s="7">
-        <v>10</v>
+        <v>207</v>
       </c>
       <c r="N4" s="7">
-        <v>4386</v>
+        <v>107831</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>28</v>
+        <v>358</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>313</v>
+        <v>359</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>314</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>822</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="7">
-        <v>14</v>
-      </c>
-      <c r="D5" s="7">
-        <v>6824</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>316</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>317</v>
+        <v>362</v>
       </c>
       <c r="H5" s="7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>5876</v>
+        <v>3005</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>318</v>
+        <v>363</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>319</v>
+        <v>364</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>320</v>
+        <v>365</v>
       </c>
       <c r="M5" s="7">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="N5" s="7">
-        <v>12700</v>
+        <v>3827</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>321</v>
+        <v>366</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>322</v>
+        <v>367</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>323</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
-        <v>206</v>
+        <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>108276</v>
+        <v>2416</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>325</v>
+        <v>53</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>326</v>
+        <v>370</v>
       </c>
       <c r="H6" s="7">
-        <v>184</v>
+        <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>95957</v>
+        <v>1376</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>327</v>
+        <v>371</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>328</v>
+        <v>372</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>329</v>
+        <v>373</v>
       </c>
       <c r="M6" s="7">
-        <v>390</v>
+        <v>9</v>
       </c>
       <c r="N6" s="7">
-        <v>204234</v>
+        <v>3792</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>330</v>
+        <v>374</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>331</v>
+        <v>375</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>332</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4748,204 +5575,204 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>226</v>
+        <v>115</v>
       </c>
       <c r="D7" s="7">
-        <v>117516</v>
+        <v>58081</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>199</v>
+        <v>109</v>
       </c>
       <c r="I7" s="7">
-        <v>103803</v>
+        <v>57369</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>425</v>
+        <v>224</v>
       </c>
       <c r="N7" s="7">
-        <v>221320</v>
+        <v>115450</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>252</v>
       </c>
       <c r="D8" s="7">
-        <v>2093</v>
+        <v>160429</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>333</v>
+        <v>377</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>334</v>
+        <v>378</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>237</v>
       </c>
       <c r="I8" s="7">
-        <v>889</v>
+        <v>146011</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>73</v>
+        <v>179</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>12</v>
+        <v>232</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="M8" s="7">
-        <v>5</v>
+        <v>489</v>
       </c>
       <c r="N8" s="7">
-        <v>2981</v>
+        <v>306439</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>171</v>
+        <v>379</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>335</v>
+        <v>380</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>336</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D9" s="7">
-        <v>25024</v>
+        <v>13454</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>337</v>
+        <v>382</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>338</v>
+        <v>383</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>339</v>
+        <v>384</v>
       </c>
       <c r="H9" s="7">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I9" s="7">
-        <v>18572</v>
+        <v>11272</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>340</v>
+        <v>385</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>341</v>
+        <v>386</v>
       </c>
       <c r="M9" s="7">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="N9" s="7">
-        <v>43596</v>
+        <v>24726</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>342</v>
+        <v>387</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>343</v>
+        <v>388</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>344</v>
+        <v>389</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7">
-        <v>238</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>177938</v>
+        <v>1416</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H10" s="7">
+        <v>3</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1483</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="H10" s="7">
-        <v>251</v>
-      </c>
-      <c r="I10" s="7">
-        <v>178807</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>349</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="M10" s="7">
-        <v>489</v>
+        <v>5</v>
       </c>
       <c r="N10" s="7">
-        <v>356746</v>
+        <v>2899</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>351</v>
+        <v>124</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>352</v>
+        <v>172</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4954,204 +5781,204 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D11" s="7">
-        <v>205055</v>
+        <v>175299</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="I11" s="7">
-        <v>198267</v>
+        <v>158765</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="N11" s="7">
-        <v>403323</v>
+        <v>334063</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>205</v>
       </c>
       <c r="D12" s="7">
-        <v>858</v>
+        <v>170282</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>12</v>
+        <v>394</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="H12" s="7">
-        <v>3</v>
+        <v>204</v>
       </c>
       <c r="I12" s="7">
-        <v>1417</v>
+        <v>157727</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="M12" s="7">
-        <v>4</v>
+        <v>409</v>
       </c>
       <c r="N12" s="7">
-        <v>2275</v>
+        <v>328009</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>123</v>
+        <v>399</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>198</v>
+        <v>401</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="7">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D13" s="7">
-        <v>44992</v>
+        <v>31519</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>361</v>
+        <v>123</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>270</v>
+        <v>403</v>
       </c>
       <c r="H13" s="7">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I13" s="7">
-        <v>32928</v>
+        <v>18228</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>292</v>
+        <v>405</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="M13" s="7">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="N13" s="7">
-        <v>77920</v>
+        <v>49747</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>364</v>
+        <v>407</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>365</v>
+        <v>408</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>366</v>
+        <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7">
-        <v>421</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>356861</v>
+        <v>676</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>367</v>
+        <v>410</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>368</v>
+        <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="H14" s="7">
-        <v>411</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>315268</v>
+        <v>159</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>348</v>
+        <v>412</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>370</v>
+        <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>371</v>
+        <v>49</v>
       </c>
       <c r="M14" s="7">
-        <v>832</v>
+        <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>672129</v>
+        <v>835</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>373</v>
+        <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>374</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,204 +5987,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>479</v>
+        <v>243</v>
       </c>
       <c r="D15" s="7">
-        <v>402710</v>
+        <v>202478</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>461</v>
+        <v>233</v>
       </c>
       <c r="I15" s="7">
-        <v>349614</v>
+        <v>176113</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>940</v>
+        <v>476</v>
       </c>
       <c r="N15" s="7">
-        <v>752324</v>
+        <v>378591</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>10</v>
+        <v>301</v>
       </c>
       <c r="D16" s="7">
-        <v>5366</v>
+        <v>257522</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>171</v>
+        <v>380</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
       <c r="H16" s="7">
-        <v>9</v>
+        <v>305</v>
       </c>
       <c r="I16" s="7">
-        <v>4276</v>
+        <v>233307</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>377</v>
+        <v>416</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>123</v>
+        <v>417</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="M16" s="7">
-        <v>19</v>
+        <v>606</v>
       </c>
       <c r="N16" s="7">
-        <v>9642</v>
+        <v>490830</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>379</v>
+        <v>419</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>147</v>
+        <v>420</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="D17" s="7">
-        <v>76840</v>
+        <v>31044</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="H17" s="7">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="I17" s="7">
-        <v>57376</v>
+        <v>24872</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
       <c r="M17" s="7">
-        <v>187</v>
+        <v>74</v>
       </c>
       <c r="N17" s="7">
-        <v>134216</v>
+        <v>55916</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>387</v>
+        <v>428</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>388</v>
+        <v>429</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>389</v>
+        <v>430</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7">
-        <v>865</v>
+        <v>1</v>
       </c>
       <c r="D18" s="7">
-        <v>643076</v>
+        <v>858</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>390</v>
+        <v>431</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>391</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="H18" s="7">
-        <v>846</v>
+        <v>2</v>
       </c>
       <c r="I18" s="7">
-        <v>590032</v>
+        <v>1259</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>393</v>
+        <v>245</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>394</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="M18" s="7">
-        <v>1711</v>
+        <v>3</v>
       </c>
       <c r="N18" s="7">
-        <v>1233109</v>
+        <v>2116</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>396</v>
+        <v>196</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>397</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>398</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5366,55 +6193,267 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>342</v>
+      </c>
+      <c r="D19" s="7">
+        <v>289424</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7">
+        <v>341</v>
+      </c>
+      <c r="I19" s="7">
+        <v>259438</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="7">
+        <v>683</v>
+      </c>
+      <c r="N19" s="7">
+        <v>548862</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
+        <v>865</v>
+      </c>
+      <c r="D20" s="7">
+        <v>643076</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="H20" s="7">
+        <v>846</v>
+      </c>
+      <c r="I20" s="7">
+        <v>590032</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="M20" s="7">
+        <v>1711</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1233109</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="7">
+        <v>101</v>
+      </c>
+      <c r="D21" s="7">
+        <v>76840</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="H21" s="7">
+        <v>86</v>
+      </c>
+      <c r="I21" s="7">
+        <v>57376</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="M21" s="7">
+        <v>187</v>
+      </c>
+      <c r="N21" s="7">
+        <v>134216</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="7">
+        <v>10</v>
+      </c>
+      <c r="D22" s="7">
+        <v>5366</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="H22" s="7">
+        <v>9</v>
+      </c>
+      <c r="I22" s="7">
+        <v>4276</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="M22" s="7">
+        <v>19</v>
+      </c>
+      <c r="N22" s="7">
+        <v>9642</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
         <v>976</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D23" s="7">
         <v>725282</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="E23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="7">
         <v>941</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I23" s="7">
         <v>651684</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M19" s="7">
+      <c r="J23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23" s="7">
         <v>1917</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N23" s="7">
         <v>1376967</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>39</v>
+      <c r="O23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP26C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP26C-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E906476A-3C68-41E7-9C32-CCF65D56A128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7944005D-6BEB-4491-9FAD-F230D14ED3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{56905D9F-4BD7-45C8-AE12-039A22F598AC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4858A94D-9E0B-43A5-9818-33FC509315F2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="460">
   <si>
     <t>Menores según si han sufrido alguna quemadura solar en el último año en 2007 (Tasa respuesta: 99,43%)</t>
   </si>
@@ -86,1327 +86,1339 @@
     <t>98,83%</t>
   </si>
   <si>
-    <t>96,13%</t>
+    <t>95,56%</t>
   </si>
   <si>
     <t>99,45%</t>
   </si>
   <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>Si sin ampollas</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>Sí con ampollas</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si han sufrido alguna quemadura solar en el último año en 2012 (Tasa respuesta: 98,9%)</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>Menores según si han sufrido alguna quemadura solar en el último año en 2016 (Tasa respuesta: 99,01%)</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
     <t>98,14%</t>
   </si>
   <si>
-    <t>Si sin ampollas</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>Sí con ampollas</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
   </si>
   <si>
     <t>2,89%</t>
   </si>
   <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
   </si>
   <si>
     <t>0,26%</t>
   </si>
   <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>Menores según si han sufrido alguna quemadura solar en el último año en 2023 (Tasa respuesta: 99,84%)</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
   </si>
   <si>
     <t>2,7%</t>
   </si>
   <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
   </si>
   <si>
     <t>10,2%</t>
   </si>
   <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si han sufrido alguna quemadura solar en el último año en 2012 (Tasa respuesta: 98,9%)</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
   </si>
   <si>
     <t>1,1%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>Menores según si han sufrido alguna quemadura solar en el último año en 2015 (Tasa respuesta: 99,01%)</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>Menores según si han sufrido alguna quemadura solar en el último año en 2023 (Tasa respuesta: 99,84%)</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
   </si>
 </sst>
 </file>
@@ -1818,7 +1830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8A3A4D-3683-46D2-A98F-E7160F26F687}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578AC8C9-4930-44BE-A0E2-6815B7A49CCF}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2253,10 +2265,10 @@
         <v>48</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2271,7 +2283,7 @@
         <v>20</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -2680,10 +2692,10 @@
         <v>100</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M18" s="7">
         <v>7</v>
@@ -2692,13 +2704,13 @@
         <v>4732</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2766,13 +2778,13 @@
         <v>648955</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H20" s="7">
         <v>898</v>
@@ -2781,13 +2793,13 @@
         <v>600121</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M20" s="7">
         <v>1873</v>
@@ -2796,13 +2808,13 @@
         <v>1249077</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2817,13 +2829,13 @@
         <v>61352</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H21" s="7">
         <v>111</v>
@@ -2832,13 +2844,13 @@
         <v>74903</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M21" s="7">
         <v>203</v>
@@ -2847,13 +2859,13 @@
         <v>136255</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2868,13 +2880,13 @@
         <v>6248</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -2883,13 +2895,13 @@
         <v>4005</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>76</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M22" s="7">
         <v>16</v>
@@ -2901,10 +2913,10 @@
         <v>51</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2960,7 +2972,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2980,7 +2992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46924BCA-A48B-40ED-80B5-DD2E8334989D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE9318D-4EEB-49A1-AA8A-79803C615A4D}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2997,7 +3009,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3104,13 +3116,13 @@
         <v>137038</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H4" s="7">
         <v>210</v>
@@ -3119,13 +3131,13 @@
         <v>140439</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M4" s="7">
         <v>404</v>
@@ -3134,13 +3146,13 @@
         <v>277477</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,13 +3167,13 @@
         <v>3298</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -3170,13 +3182,13 @@
         <v>1310</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -3185,13 +3197,13 @@
         <v>4607</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3206,13 +3218,13 @@
         <v>1400</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -3221,13 +3233,13 @@
         <v>734</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -3236,13 +3248,13 @@
         <v>2134</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>76</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,13 +3322,13 @@
         <v>252896</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H8" s="7">
         <v>319</v>
@@ -3325,13 +3337,13 @@
         <v>221276</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="M8" s="7">
         <v>670</v>
@@ -3340,13 +3352,13 @@
         <v>474173</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3361,13 +3373,13 @@
         <v>12708</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H9" s="7">
         <v>17</v>
@@ -3376,13 +3388,13 @@
         <v>12069</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M9" s="7">
         <v>35</v>
@@ -3391,13 +3403,13 @@
         <v>24777</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,13 +3424,13 @@
         <v>1355</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3427,13 +3439,13 @@
         <v>627</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -3442,13 +3454,13 @@
         <v>1982</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3516,13 +3528,13 @@
         <v>139349</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H12" s="7">
         <v>196</v>
@@ -3531,13 +3543,13 @@
         <v>138174</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M12" s="7">
         <v>396</v>
@@ -3546,13 +3558,13 @@
         <v>277523</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,13 +3579,13 @@
         <v>17285</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -3582,13 +3594,13 @@
         <v>17206</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M13" s="7">
         <v>50</v>
@@ -3597,13 +3609,13 @@
         <v>34491</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,13 +3630,13 @@
         <v>1937</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -3633,13 +3645,13 @@
         <v>1663</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -3648,13 +3660,13 @@
         <v>3599</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>101</v>
+        <v>192</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,13 +3734,13 @@
         <v>134408</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H16" s="7">
         <v>187</v>
@@ -3740,10 +3752,10 @@
         <v>85</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="M16" s="7">
         <v>384</v>
@@ -3752,13 +3764,13 @@
         <v>264877</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3773,13 +3785,13 @@
         <v>40057</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="H17" s="7">
         <v>53</v>
@@ -3788,13 +3800,13 @@
         <v>38644</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>214</v>
+        <v>69</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="M17" s="7">
         <v>113</v>
@@ -3803,13 +3815,13 @@
         <v>78700</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3824,13 +3836,13 @@
         <v>3244</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -3845,7 +3857,7 @@
         <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="M18" s="7">
         <v>6</v>
@@ -3854,13 +3866,13 @@
         <v>4210</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3928,13 +3940,13 @@
         <v>663691</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="H20" s="7">
         <v>912</v>
@@ -3943,13 +3955,13 @@
         <v>630359</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="M20" s="7">
         <v>1854</v>
@@ -3958,13 +3970,13 @@
         <v>1294050</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3979,13 +3991,13 @@
         <v>73347</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="H21" s="7">
         <v>97</v>
@@ -3994,13 +4006,13 @@
         <v>69229</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="M21" s="7">
         <v>205</v>
@@ -4009,13 +4021,13 @@
         <v>142576</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4033,10 +4045,10 @@
         <v>21</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -4048,10 +4060,10 @@
         <v>23</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>22</v>
+        <v>238</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -4060,13 +4072,13 @@
         <v>11925</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4122,7 +4134,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -4142,7 +4154,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E37A853-9F6E-4EBB-BD86-53C96937FF1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFB1AD5-CAB8-4758-B5D8-3AE431335DE6}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4159,7 +4171,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4266,10 +4278,10 @@
         <v>117637</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>11</v>
@@ -4281,13 +4293,13 @@
         <v>123718</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>17</v>
+        <v>245</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M4" s="7">
         <v>376</v>
@@ -4296,13 +4308,13 @@
         <v>241355</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,13 +4329,13 @@
         <v>890</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -4332,13 +4344,13 @@
         <v>1690</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>173</v>
+        <v>252</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>256</v>
+        <v>19</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -4347,13 +4359,13 @@
         <v>2580</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4383,13 +4395,13 @@
         <v>659</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -4398,13 +4410,13 @@
         <v>659</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4472,13 +4484,13 @@
         <v>242019</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H8" s="7">
         <v>312</v>
@@ -4487,13 +4499,13 @@
         <v>197697</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>268</v>
+        <v>129</v>
       </c>
       <c r="M8" s="7">
         <v>668</v>
@@ -4502,13 +4514,13 @@
         <v>439716</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>270</v>
+        <v>178</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4523,13 +4535,13 @@
         <v>15329</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="H9" s="7">
         <v>15</v>
@@ -4538,13 +4550,13 @@
         <v>9700</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>99</v>
+        <v>270</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="M9" s="7">
         <v>38</v>
@@ -4553,13 +4565,13 @@
         <v>25029</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4574,13 +4586,13 @@
         <v>713</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4589,13 +4601,13 @@
         <v>1910</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>280</v>
+        <v>139</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>276</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -4604,13 +4616,13 @@
         <v>2623</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>284</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4678,13 +4690,13 @@
         <v>166138</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>113</v>
+        <v>280</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H12" s="7">
         <v>236</v>
@@ -4693,13 +4705,13 @@
         <v>163646</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="M12" s="7">
         <v>468</v>
@@ -4708,13 +4720,13 @@
         <v>329784</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4729,13 +4741,13 @@
         <v>21353</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>167</v>
+        <v>290</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -4744,13 +4756,13 @@
         <v>24139</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>296</v>
+        <v>117</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M13" s="7">
         <v>64</v>
@@ -4759,13 +4771,13 @@
         <v>45492</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,7 +4798,7 @@
         <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -4795,13 +4807,13 @@
         <v>479</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>303</v>
+        <v>25</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -4810,13 +4822,13 @@
         <v>1560</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>101</v>
+        <v>299</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4884,13 +4896,13 @@
         <v>144100</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>181</v>
+        <v>301</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H16" s="7">
         <v>206</v>
@@ -4899,13 +4911,13 @@
         <v>146339</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="M16" s="7">
         <v>399</v>
@@ -4914,13 +4926,13 @@
         <v>290438</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4935,13 +4947,13 @@
         <v>27852</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="H17" s="7">
         <v>35</v>
@@ -4950,13 +4962,13 @@
         <v>23528</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="M17" s="7">
         <v>74</v>
@@ -4965,13 +4977,13 @@
         <v>51380</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4986,13 +4998,13 @@
         <v>1434</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -5001,13 +5013,13 @@
         <v>3434</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M18" s="7">
         <v>7</v>
@@ -5016,13 +5028,13 @@
         <v>4868</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5090,13 +5102,13 @@
         <v>669894</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="H20" s="7">
         <v>952</v>
@@ -5105,13 +5117,13 @@
         <v>631399</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="M20" s="7">
         <v>1911</v>
@@ -5120,13 +5132,13 @@
         <v>1301293</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5192,13 +5204,13 @@
         <v>3228</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>345</v>
-      </c>
       <c r="G22" s="7" t="s">
-        <v>346</v>
+        <v>194</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -5207,13 +5219,13 @@
         <v>6482</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
@@ -5222,13 +5234,13 @@
         <v>9710</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5284,7 +5296,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -5304,7 +5316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381D541B-23C9-48AD-851E-B5F96DE126C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{927BC2BA-9E82-4D32-BC14-743AFC964DAD}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5321,7 +5333,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5428,13 +5440,13 @@
         <v>54843</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H4" s="7">
         <v>100</v>
@@ -5443,13 +5455,13 @@
         <v>52988</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="M4" s="7">
         <v>207</v>
@@ -5458,13 +5470,13 @@
         <v>107831</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5479,13 +5491,13 @@
         <v>822</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -5494,13 +5506,13 @@
         <v>3005</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -5509,13 +5521,13 @@
         <v>3827</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5530,13 +5542,13 @@
         <v>2416</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>53</v>
+        <v>300</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -5545,13 +5557,13 @@
         <v>1376</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="M6" s="7">
         <v>9</v>
@@ -5560,13 +5572,13 @@
         <v>3792</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5634,13 +5646,13 @@
         <v>160429</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="H8" s="7">
         <v>237</v>
@@ -5649,13 +5661,13 @@
         <v>146011</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>179</v>
+        <v>378</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>232</v>
+        <v>379</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="M8" s="7">
         <v>489</v>
@@ -5664,13 +5676,13 @@
         <v>306439</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5685,13 +5697,13 @@
         <v>13454</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H9" s="7">
         <v>18</v>
@@ -5700,13 +5712,13 @@
         <v>11272</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>164</v>
+        <v>387</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M9" s="7">
         <v>40</v>
@@ -5715,13 +5727,13 @@
         <v>24726</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>388</v>
+        <v>272</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5736,13 +5748,13 @@
         <v>1416</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>260</v>
+        <v>393</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -5751,13 +5763,13 @@
         <v>1483</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>391</v>
+        <v>297</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -5766,13 +5778,13 @@
         <v>2899</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5840,13 +5852,13 @@
         <v>170282</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="H12" s="7">
         <v>204</v>
@@ -5855,13 +5867,13 @@
         <v>157727</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="M12" s="7">
         <v>409</v>
@@ -5870,13 +5882,13 @@
         <v>328009</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>400</v>
+        <v>174</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5891,13 +5903,13 @@
         <v>31519</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>123</v>
+        <v>404</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -5906,13 +5918,13 @@
         <v>18228</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -5921,13 +5933,13 @@
         <v>49747</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5942,13 +5954,13 @@
         <v>676</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>410</v>
+        <v>52</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -5957,13 +5969,13 @@
         <v>159</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -5972,13 +5984,13 @@
         <v>835</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>280</v>
+        <v>415</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6046,13 +6058,13 @@
         <v>257522</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>380</v>
+        <v>416</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="H16" s="7">
         <v>305</v>
@@ -6061,13 +6073,13 @@
         <v>233307</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>418</v>
+        <v>34</v>
       </c>
       <c r="M16" s="7">
         <v>606</v>
@@ -6076,13 +6088,13 @@
         <v>490830</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>421</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6097,13 +6109,13 @@
         <v>31044</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H17" s="7">
         <v>34</v>
@@ -6112,13 +6124,13 @@
         <v>24872</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M17" s="7">
         <v>74</v>
@@ -6127,13 +6139,13 @@
         <v>55916</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6148,13 +6160,13 @@
         <v>858</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>375</v>
+        <v>433</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -6163,13 +6175,13 @@
         <v>1259</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>245</v>
+        <v>102</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -6178,13 +6190,13 @@
         <v>2116</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>435</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>176</v>
+        <v>436</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6252,13 +6264,13 @@
         <v>643076</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="H20" s="7">
         <v>846</v>
@@ -6267,13 +6279,13 @@
         <v>590032</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>308</v>
+        <v>441</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>437</v>
+        <v>331</v>
       </c>
       <c r="M20" s="7">
         <v>1711</v>
@@ -6282,13 +6294,13 @@
         <v>1233109</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6303,13 +6315,13 @@
         <v>76840</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="H21" s="7">
         <v>86</v>
@@ -6318,13 +6330,13 @@
         <v>57376</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="M21" s="7">
         <v>187</v>
@@ -6333,13 +6345,13 @@
         <v>134216</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6354,13 +6366,13 @@
         <v>5366</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>452</v>
+        <v>252</v>
       </c>
       <c r="H22" s="7">
         <v>9</v>
@@ -6369,13 +6381,13 @@
         <v>4276</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>431</v>
+        <v>255</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>262</v>
+        <v>457</v>
       </c>
       <c r="M22" s="7">
         <v>19</v>
@@ -6384,13 +6396,13 @@
         <v>9642</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>220</v>
+        <v>322</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6446,7 +6458,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP26C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP26C-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7944005D-6BEB-4491-9FAD-F230D14ED3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74619CCB-8FEC-4937-BD8D-AE400B58D227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4858A94D-9E0B-43A5-9818-33FC509315F2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2B743DE1-28E4-496D-86AC-1813E42A734D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="458">
   <si>
     <t>Menores según si han sufrido alguna quemadura solar en el último año en 2007 (Tasa respuesta: 99,43%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,6 +74,12 @@
     <t>No</t>
   </si>
   <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
@@ -83,16 +89,10 @@
     <t>100%</t>
   </si>
   <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
     <t>99,45%</t>
   </si>
   <si>
-    <t>98,21%</t>
+    <t>98,22%</t>
   </si>
   <si>
     <t>Si sin ampollas</t>
@@ -104,12 +104,12 @@
     <t>0%</t>
   </si>
   <si>
+    <t>1,2%</t>
+  </si>
+  <si>
     <t>1,07%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
     <t>0,57%</t>
   </si>
   <si>
@@ -119,1303 +119,1297 @@
     <t>1,17%</t>
   </si>
   <si>
-    <t>4,44%</t>
+    <t>3,98%</t>
   </si>
   <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>1,79%</t>
+    <t>1,78%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
     <t>94,85%</t>
   </si>
   <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
   </si>
   <si>
     <t>95,13%</t>
   </si>
   <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
   </si>
   <si>
     <t>3,7%</t>
   </si>
   <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
   </si>
   <si>
     <t>4,14%</t>
   </si>
   <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
   </si>
   <si>
     <t>1,45%</t>
   </si>
   <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
   </si>
   <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
+    <t>0,26%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
     <t>91,16%</t>
   </si>
   <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si han sufrido alguna quemadura solar en el último año en 2012 (Tasa respuesta: 98,9%)</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>Menores según si han sufrido alguna quemadura solar en el último año en 2016 (Tasa respuesta: 99,01%)</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>Menores según si han sufrido alguna quemadura solar en el último año en 2023 (Tasa respuesta: 99,84%)</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
   </si>
   <si>
     <t>92,04%</t>
   </si>
   <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
   </si>
   <si>
     <t>12,23%</t>
   </si>
   <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si han sufrido alguna quemadura solar en el último año en 2012 (Tasa respuesta: 98,9%)</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>Menores según si han sufrido alguna quemadura solar en el último año en 2016 (Tasa respuesta: 99,01%)</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>Menores según si han sufrido alguna quemadura solar en el último año en 2023 (Tasa respuesta: 99,84%)</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
   </si>
   <si>
     <t>1,1%</t>
@@ -1830,7 +1824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578AC8C9-4930-44BE-A0E2-6815B7A49CCF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D86B9850-8DE6-47FB-B3B5-F3474BBD8ED1}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1948,10 +1942,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="D4" s="7">
-        <v>118692</v>
+        <v>102964</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1963,19 +1957,19 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="I4" s="7">
-        <v>102964</v>
+        <v>118692</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
         <v>335</v>
@@ -1990,7 +1984,7 @@
         <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2050,34 +2044,34 @@
         <v>24</v>
       </c>
       <c r="C6" s="7">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1216</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="7">
         <v>0</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>0</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="7">
-        <v>2</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1216</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -2101,34 +2095,34 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>159</v>
+      </c>
+      <c r="D7" s="7">
+        <v>104180</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7">
         <v>178</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>118692</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7">
-        <v>159</v>
-      </c>
-      <c r="I7" s="7">
-        <v>104180</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M7" s="7">
         <v>337</v>
@@ -2137,13 +2131,13 @@
         <v>222872</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2157,7 +2151,7 @@
         <v>361</v>
       </c>
       <c r="D8" s="7">
-        <v>240026</v>
+        <v>241610</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>30</v>
@@ -2172,7 +2166,7 @@
         <v>361</v>
       </c>
       <c r="I8" s="7">
-        <v>241610</v>
+        <v>240026</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>33</v>
@@ -2205,10 +2199,10 @@
         <v>18</v>
       </c>
       <c r="C9" s="7">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D9" s="7">
-        <v>9371</v>
+        <v>11595</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>39</v>
@@ -2220,10 +2214,10 @@
         <v>41</v>
       </c>
       <c r="H9" s="7">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I9" s="7">
-        <v>11595</v>
+        <v>9371</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>42</v>
@@ -2256,34 +2250,34 @@
         <v>24</v>
       </c>
       <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="7">
         <v>6</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>3674</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="K10" s="7" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -2292,13 +2286,13 @@
         <v>3674</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2307,34 +2301,34 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>379</v>
+      </c>
+      <c r="D11" s="7">
+        <v>253205</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="7">
         <v>381</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>253071</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="7">
-        <v>379</v>
-      </c>
-      <c r="I11" s="7">
-        <v>253205</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M11" s="7">
         <v>760</v>
@@ -2343,13 +2337,13 @@
         <v>506276</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2360,10 +2354,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D12" s="7">
-        <v>128369</v>
+        <v>112040</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>55</v>
@@ -2375,10 +2369,10 @@
         <v>57</v>
       </c>
       <c r="H12" s="7">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="I12" s="7">
-        <v>112040</v>
+        <v>128369</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>58</v>
@@ -2411,10 +2405,10 @@
         <v>18</v>
       </c>
       <c r="C13" s="7">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D13" s="7">
-        <v>11811</v>
+        <v>15508</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>64</v>
@@ -2426,10 +2420,10 @@
         <v>66</v>
       </c>
       <c r="H13" s="7">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I13" s="7">
-        <v>15508</v>
+        <v>11811</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>67</v>
@@ -2462,31 +2456,31 @@
         <v>24</v>
       </c>
       <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="7">
         <v>1</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>631</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="J14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>75</v>
@@ -2513,34 +2507,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>191</v>
+      </c>
+      <c r="D15" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="7">
         <v>211</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>140811</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>191</v>
-      </c>
-      <c r="I15" s="7">
-        <v>127548</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
         <v>402</v>
@@ -2549,13 +2543,13 @@
         <v>268359</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2566,10 +2560,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="D16" s="7">
-        <v>161867</v>
+        <v>143509</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>79</v>
@@ -2581,10 +2575,10 @@
         <v>81</v>
       </c>
       <c r="H16" s="7">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="I16" s="7">
-        <v>143509</v>
+        <v>161867</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>82</v>
@@ -2617,10 +2611,10 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D17" s="7">
-        <v>40170</v>
+        <v>47799</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>88</v>
@@ -2632,10 +2626,10 @@
         <v>90</v>
       </c>
       <c r="H17" s="7">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I17" s="7">
-        <v>47799</v>
+        <v>40170</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>91</v>
@@ -2668,10 +2662,10 @@
         <v>24</v>
       </c>
       <c r="C18" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" s="7">
-        <v>1943</v>
+        <v>2789</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>97</v>
@@ -2683,19 +2677,19 @@
         <v>99</v>
       </c>
       <c r="H18" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I18" s="7">
-        <v>2789</v>
+        <v>1943</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>100</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M18" s="7">
         <v>7</v>
@@ -2704,13 +2698,13 @@
         <v>4732</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2719,34 +2713,34 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>286</v>
+      </c>
+      <c r="D19" s="7">
+        <v>194097</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="7">
         <v>307</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>203980</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="7">
-        <v>286</v>
-      </c>
-      <c r="I19" s="7">
-        <v>194097</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M19" s="7">
         <v>593</v>
@@ -2755,13 +2749,13 @@
         <v>398077</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2772,34 +2766,34 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>898</v>
+      </c>
+      <c r="D20" s="7">
+        <v>600121</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="7">
         <v>975</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>648955</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H20" s="7">
-        <v>898</v>
-      </c>
-      <c r="I20" s="7">
-        <v>600121</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M20" s="7">
         <v>1873</v>
@@ -2808,13 +2802,13 @@
         <v>1249077</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2823,34 +2817,34 @@
         <v>18</v>
       </c>
       <c r="C21" s="7">
+        <v>111</v>
+      </c>
+      <c r="D21" s="7">
+        <v>74903</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H21" s="7">
         <v>92</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>61352</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H21" s="7">
-        <v>111</v>
-      </c>
-      <c r="I21" s="7">
-        <v>74903</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M21" s="7">
         <v>203</v>
@@ -2859,13 +2853,13 @@
         <v>136255</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2874,34 +2868,34 @@
         <v>24</v>
       </c>
       <c r="C22" s="7">
+        <v>6</v>
+      </c>
+      <c r="D22" s="7">
+        <v>4005</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H22" s="7">
         <v>10</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>6248</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H22" s="7">
-        <v>6</v>
-      </c>
-      <c r="I22" s="7">
-        <v>4005</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>16</v>
@@ -2910,13 +2904,13 @@
         <v>10253</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2925,34 +2919,34 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1015</v>
+      </c>
+      <c r="D23" s="7">
+        <v>679029</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="7">
         <v>1077</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>716555</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1015</v>
-      </c>
-      <c r="I23" s="7">
-        <v>679029</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M23" s="7">
         <v>2092</v>
@@ -2961,18 +2955,18 @@
         <v>1395584</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2992,7 +2986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE9318D-4EEB-49A1-AA8A-79803C615A4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDFA3CE-A5CA-4143-8A31-99532C1447F4}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3009,7 +3003,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3110,34 +3104,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>210</v>
+      </c>
+      <c r="D4" s="7">
+        <v>140439</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H4" s="7">
         <v>194</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>137038</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H4" s="7">
-        <v>210</v>
-      </c>
-      <c r="I4" s="7">
-        <v>140439</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M4" s="7">
         <v>404</v>
@@ -3146,13 +3140,13 @@
         <v>277477</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3161,34 +3155,34 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1310</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H5" s="7">
         <v>5</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>3298</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1310</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -3197,13 +3191,13 @@
         <v>4607</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3212,34 +3206,34 @@
         <v>24</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>1400</v>
+        <v>734</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>734</v>
+        <v>1400</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -3248,13 +3242,13 @@
         <v>2134</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>76</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3263,34 +3257,34 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>213</v>
+      </c>
+      <c r="D7" s="7">
+        <v>142483</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7">
         <v>201</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>141736</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7">
-        <v>213</v>
-      </c>
-      <c r="I7" s="7">
-        <v>142483</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M7" s="7">
         <v>414</v>
@@ -3299,13 +3293,13 @@
         <v>284219</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,34 +3310,34 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>319</v>
+      </c>
+      <c r="D8" s="7">
+        <v>221276</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H8" s="7">
         <v>351</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>252896</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H8" s="7">
-        <v>319</v>
-      </c>
-      <c r="I8" s="7">
-        <v>221276</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>670</v>
@@ -3352,13 +3346,13 @@
         <v>474173</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3367,34 +3361,34 @@
         <v>18</v>
       </c>
       <c r="C9" s="7">
+        <v>17</v>
+      </c>
+      <c r="D9" s="7">
+        <v>12069</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H9" s="7">
         <v>18</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>12708</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H9" s="7">
-        <v>17</v>
-      </c>
-      <c r="I9" s="7">
-        <v>12069</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="M9" s="7">
         <v>35</v>
@@ -3403,13 +3397,13 @@
         <v>24777</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,34 +3412,34 @@
         <v>24</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1355</v>
+        <v>627</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>50</v>
+        <v>172</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>627</v>
+        <v>1355</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>168</v>
+        <v>48</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -3454,13 +3448,13 @@
         <v>1982</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>172</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,34 +3463,34 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>337</v>
+      </c>
+      <c r="D11" s="7">
+        <v>233972</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="7">
         <v>371</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>266959</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="7">
-        <v>337</v>
-      </c>
-      <c r="I11" s="7">
-        <v>233972</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M11" s="7">
         <v>708</v>
@@ -3505,13 +3499,13 @@
         <v>500932</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,34 +3516,34 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>196</v>
+      </c>
+      <c r="D12" s="7">
+        <v>138174</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H12" s="7">
         <v>200</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>139349</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="H12" s="7">
-        <v>196</v>
-      </c>
-      <c r="I12" s="7">
-        <v>138174</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M12" s="7">
         <v>396</v>
@@ -3558,13 +3552,13 @@
         <v>277523</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,31 +3570,31 @@
         <v>25</v>
       </c>
       <c r="D13" s="7">
-        <v>17285</v>
+        <v>17206</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
       </c>
       <c r="I13" s="7">
-        <v>17206</v>
+        <v>17285</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M13" s="7">
         <v>50</v>
@@ -3609,13 +3603,13 @@
         <v>34491</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>189</v>
+        <v>67</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3624,34 +3618,34 @@
         <v>24</v>
       </c>
       <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1663</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H14" s="7">
         <v>3</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>1937</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1663</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>19</v>
+        <v>197</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -3660,13 +3654,13 @@
         <v>3599</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3675,34 +3669,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>223</v>
+      </c>
+      <c r="D15" s="7">
+        <v>157043</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="7">
         <v>228</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>158571</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>223</v>
-      </c>
-      <c r="I15" s="7">
-        <v>157043</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
         <v>451</v>
@@ -3711,13 +3705,13 @@
         <v>315614</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,34 +3722,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>187</v>
+      </c>
+      <c r="D16" s="7">
+        <v>130468</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H16" s="7">
         <v>197</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>134408</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="H16" s="7">
-        <v>187</v>
-      </c>
-      <c r="I16" s="7">
-        <v>130468</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>85</v>
+        <v>204</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="M16" s="7">
         <v>384</v>
@@ -3764,13 +3758,13 @@
         <v>264877</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,34 +3773,34 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>53</v>
+      </c>
+      <c r="D17" s="7">
+        <v>38644</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H17" s="7">
         <v>60</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>40057</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H17" s="7">
-        <v>53</v>
-      </c>
-      <c r="I17" s="7">
-        <v>38644</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>69</v>
+        <v>214</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="M17" s="7">
         <v>113</v>
@@ -3815,13 +3809,13 @@
         <v>78700</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3830,34 +3824,34 @@
         <v>24</v>
       </c>
       <c r="C18" s="7">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7">
+        <v>966</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H18" s="7">
         <v>5</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>3244</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1</v>
-      </c>
-      <c r="I18" s="7">
-        <v>966</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>220</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>221</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="M18" s="7">
         <v>6</v>
@@ -3866,13 +3860,13 @@
         <v>4210</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3881,34 +3875,34 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>241</v>
+      </c>
+      <c r="D19" s="7">
+        <v>170078</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="7">
         <v>262</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>177709</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="7">
-        <v>241</v>
-      </c>
-      <c r="I19" s="7">
-        <v>170078</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M19" s="7">
         <v>503</v>
@@ -3917,13 +3911,13 @@
         <v>347787</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3934,34 +3928,34 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>912</v>
+      </c>
+      <c r="D20" s="7">
+        <v>630359</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H20" s="7">
         <v>942</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>663691</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="H20" s="7">
-        <v>912</v>
-      </c>
-      <c r="I20" s="7">
-        <v>630359</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="M20" s="7">
         <v>1854</v>
@@ -3970,13 +3964,13 @@
         <v>1294050</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3985,34 +3979,34 @@
         <v>18</v>
       </c>
       <c r="C21" s="7">
+        <v>97</v>
+      </c>
+      <c r="D21" s="7">
+        <v>69229</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H21" s="7">
         <v>108</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>73347</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="H21" s="7">
-        <v>97</v>
-      </c>
-      <c r="I21" s="7">
-        <v>69229</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="M21" s="7">
         <v>205</v>
@@ -4021,13 +4015,13 @@
         <v>142576</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4036,34 +4030,34 @@
         <v>24</v>
       </c>
       <c r="C22" s="7">
+        <v>5</v>
+      </c>
+      <c r="D22" s="7">
+        <v>3990</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H22" s="7">
         <v>12</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>7936</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H22" s="7">
-        <v>5</v>
-      </c>
-      <c r="I22" s="7">
-        <v>3990</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -4072,13 +4066,13 @@
         <v>11925</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>240</v>
+        <v>104</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4087,34 +4081,34 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1014</v>
+      </c>
+      <c r="D23" s="7">
+        <v>703577</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="7">
         <v>1062</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>744974</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1014</v>
-      </c>
-      <c r="I23" s="7">
-        <v>703577</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M23" s="7">
         <v>2076</v>
@@ -4123,18 +4117,18 @@
         <v>1448551</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -4154,7 +4148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFB1AD5-CAB8-4758-B5D8-3AE431335DE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73372E74-983B-4C24-A15E-03B7B57B362E}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4171,7 +4165,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4272,34 +4266,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>198</v>
+      </c>
+      <c r="D4" s="7">
+        <v>123718</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H4" s="7">
         <v>178</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>117637</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="7">
-        <v>198</v>
-      </c>
-      <c r="I4" s="7">
-        <v>123718</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
         <v>376</v>
@@ -4308,13 +4302,13 @@
         <v>241355</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4323,34 +4317,34 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1690</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H5" s="7">
         <v>1</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>890</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="H5" s="7">
-        <v>3</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1690</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>252</v>
+        <v>152</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -4359,13 +4353,13 @@
         <v>2580</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4374,34 +4368,34 @@
         <v>24</v>
       </c>
       <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>659</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H6" s="7">
         <v>0</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>0</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>659</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="L6" s="7" t="s">
-        <v>257</v>
+        <v>22</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -4410,13 +4404,13 @@
         <v>659</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4425,34 +4419,34 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>202</v>
+      </c>
+      <c r="D7" s="7">
+        <v>126067</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7">
         <v>179</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>118527</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7">
-        <v>202</v>
-      </c>
-      <c r="I7" s="7">
-        <v>126067</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M7" s="7">
         <v>381</v>
@@ -4461,13 +4455,13 @@
         <v>244594</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4478,34 +4472,34 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>312</v>
+      </c>
+      <c r="D8" s="7">
+        <v>197697</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H8" s="7">
         <v>356</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>242019</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="H8" s="7">
-        <v>312</v>
-      </c>
-      <c r="I8" s="7">
-        <v>197697</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>129</v>
+        <v>269</v>
       </c>
       <c r="M8" s="7">
         <v>668</v>
@@ -4514,13 +4508,13 @@
         <v>439716</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>271</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4529,34 +4523,34 @@
         <v>18</v>
       </c>
       <c r="C9" s="7">
+        <v>15</v>
+      </c>
+      <c r="D9" s="7">
+        <v>9700</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H9" s="7">
         <v>23</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>15329</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="H9" s="7">
-        <v>15</v>
-      </c>
-      <c r="I9" s="7">
-        <v>9700</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="M9" s="7">
         <v>38</v>
@@ -4565,13 +4559,13 @@
         <v>25029</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4580,34 +4574,34 @@
         <v>24</v>
       </c>
       <c r="C10" s="7">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1910</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>713</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="H10" s="7">
-        <v>3</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1910</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>276</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -4616,13 +4610,13 @@
         <v>2623</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4631,34 +4625,34 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>330</v>
+      </c>
+      <c r="D11" s="7">
+        <v>209307</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="7">
         <v>380</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>258061</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="7">
-        <v>330</v>
-      </c>
-      <c r="I11" s="7">
-        <v>209307</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M11" s="7">
         <v>710</v>
@@ -4667,13 +4661,13 @@
         <v>467368</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4684,34 +4678,34 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>236</v>
+      </c>
+      <c r="D12" s="7">
+        <v>163646</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H12" s="7">
         <v>232</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>166138</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="H12" s="7">
-        <v>236</v>
-      </c>
-      <c r="I12" s="7">
-        <v>163646</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="M12" s="7">
         <v>468</v>
@@ -4720,13 +4714,13 @@
         <v>329784</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4735,34 +4729,34 @@
         <v>18</v>
       </c>
       <c r="C13" s="7">
+        <v>34</v>
+      </c>
+      <c r="D13" s="7">
+        <v>24139</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H13" s="7">
         <v>30</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>21353</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="H13" s="7">
-        <v>34</v>
-      </c>
-      <c r="I13" s="7">
-        <v>24139</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>117</v>
+        <v>298</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="M13" s="7">
         <v>64</v>
@@ -4771,13 +4765,13 @@
         <v>45492</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4789,31 +4783,31 @@
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>1081</v>
+        <v>479</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>23</v>
+        <v>303</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>103</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>479</v>
+        <v>1081</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>298</v>
+        <v>23</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -4822,13 +4816,13 @@
         <v>1560</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>299</v>
+        <v>98</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>300</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,34 +4831,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>271</v>
+      </c>
+      <c r="D15" s="7">
+        <v>188263</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="7">
         <v>263</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>188572</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>271</v>
-      </c>
-      <c r="I15" s="7">
-        <v>188263</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
         <v>534</v>
@@ -4873,13 +4867,13 @@
         <v>376836</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4890,34 +4884,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>206</v>
+      </c>
+      <c r="D16" s="7">
+        <v>146339</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="H16" s="7">
         <v>193</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>144100</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="H16" s="7">
-        <v>206</v>
-      </c>
-      <c r="I16" s="7">
-        <v>146339</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M16" s="7">
         <v>399</v>
@@ -4926,13 +4920,13 @@
         <v>290438</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,34 +4935,34 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>35</v>
+      </c>
+      <c r="D17" s="7">
+        <v>23528</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H17" s="7">
         <v>39</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>27852</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="H17" s="7">
-        <v>35</v>
-      </c>
-      <c r="I17" s="7">
-        <v>23528</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M17" s="7">
         <v>74</v>
@@ -4977,13 +4971,13 @@
         <v>51380</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4992,34 +4986,34 @@
         <v>24</v>
       </c>
       <c r="C18" s="7">
+        <v>5</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3434</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="H18" s="7">
         <v>2</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>1434</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="J18" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="H18" s="7">
-        <v>5</v>
-      </c>
-      <c r="I18" s="7">
-        <v>3434</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>322</v>
-      </c>
       <c r="L18" s="7" t="s">
-        <v>323</v>
+        <v>167</v>
       </c>
       <c r="M18" s="7">
         <v>7</v>
@@ -5031,7 +5025,7 @@
         <v>324</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>325</v>
@@ -5043,34 +5037,34 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>246</v>
+      </c>
+      <c r="D19" s="7">
+        <v>173301</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="7">
         <v>234</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>173385</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="7">
-        <v>246</v>
-      </c>
-      <c r="I19" s="7">
-        <v>173301</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M19" s="7">
         <v>480</v>
@@ -5079,13 +5073,13 @@
         <v>346686</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5096,10 +5090,10 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>959</v>
+        <v>952</v>
       </c>
       <c r="D20" s="7">
-        <v>669894</v>
+        <v>631399</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>326</v>
@@ -5111,10 +5105,10 @@
         <v>328</v>
       </c>
       <c r="H20" s="7">
-        <v>952</v>
+        <v>959</v>
       </c>
       <c r="I20" s="7">
-        <v>631399</v>
+        <v>669894</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>329</v>
@@ -5129,7 +5123,7 @@
         <v>1911</v>
       </c>
       <c r="N20" s="7">
-        <v>1301293</v>
+        <v>1301292</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>332</v>
@@ -5147,10 +5141,10 @@
         <v>18</v>
       </c>
       <c r="C21" s="7">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D21" s="7">
-        <v>65424</v>
+        <v>59057</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>335</v>
@@ -5162,10 +5156,10 @@
         <v>337</v>
       </c>
       <c r="H21" s="7">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="I21" s="7">
-        <v>59057</v>
+        <v>65424</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>338</v>
@@ -5198,34 +5192,34 @@
         <v>24</v>
       </c>
       <c r="C22" s="7">
+        <v>10</v>
+      </c>
+      <c r="D22" s="7">
+        <v>6482</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H22" s="7">
         <v>4</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>3228</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="H22" s="7">
-        <v>10</v>
-      </c>
-      <c r="I22" s="7">
-        <v>6482</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>192</v>
+        <v>348</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
@@ -5234,13 +5228,13 @@
         <v>9710</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>347</v>
+        <v>146</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>348</v>
+        <v>197</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>77</v>
+        <v>350</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5249,54 +5243,54 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1049</v>
+      </c>
+      <c r="D23" s="7">
+        <v>696938</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="7">
         <v>1056</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>738546</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1049</v>
-      </c>
-      <c r="I23" s="7">
-        <v>696938</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M23" s="7">
         <v>2105</v>
       </c>
       <c r="N23" s="7">
-        <v>1435484</v>
+        <v>1435483</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -5316,7 +5310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{927BC2BA-9E82-4D32-BC14-743AFC964DAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02D8FDF-2B95-4C41-8972-B280743BD3CA}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5333,7 +5327,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5434,49 +5428,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>100</v>
+      </c>
+      <c r="D4" s="7">
+        <v>53096</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H4" s="7">
         <v>107</v>
       </c>
-      <c r="D4" s="7">
-        <v>54843</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="H4" s="7">
-        <v>100</v>
-      </c>
       <c r="I4" s="7">
-        <v>52988</v>
+        <v>57750</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M4" s="7">
         <v>207</v>
       </c>
       <c r="N4" s="7">
-        <v>107831</v>
+        <v>110845</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5485,49 +5479,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3031</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="H5" s="7">
         <v>2</v>
       </c>
-      <c r="D5" s="7">
-        <v>822</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="I5" s="7">
+        <v>808</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="H5" s="7">
-        <v>6</v>
-      </c>
-      <c r="I5" s="7">
-        <v>3005</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>362</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
       </c>
       <c r="N5" s="7">
-        <v>3827</v>
+        <v>3840</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5536,49 +5530,49 @@
         <v>24</v>
       </c>
       <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1384</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="H6" s="7">
         <v>6</v>
       </c>
-      <c r="D6" s="7">
-        <v>2416</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="H6" s="7">
-        <v>3</v>
-      </c>
       <c r="I6" s="7">
-        <v>1376</v>
+        <v>2460</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>369</v>
+        <v>257</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>370</v>
+        <v>263</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="M6" s="7">
         <v>9</v>
       </c>
       <c r="N6" s="7">
-        <v>3792</v>
+        <v>3844</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5587,49 +5581,49 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>109</v>
+      </c>
+      <c r="D7" s="7">
+        <v>57511</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7">
         <v>115</v>
       </c>
-      <c r="D7" s="7">
-        <v>58081</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7">
-        <v>109</v>
-      </c>
       <c r="I7" s="7">
-        <v>57369</v>
+        <v>61018</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M7" s="7">
         <v>224</v>
       </c>
       <c r="N7" s="7">
-        <v>115450</v>
+        <v>118529</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5640,49 +5634,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>237</v>
+      </c>
+      <c r="D8" s="7">
+        <v>147037</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="H8" s="7">
         <v>252</v>
       </c>
-      <c r="D8" s="7">
-        <v>160429</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="I8" s="7">
+        <v>167596</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="H8" s="7">
-        <v>237</v>
-      </c>
-      <c r="I8" s="7">
-        <v>146011</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="M8" s="7">
         <v>489</v>
       </c>
       <c r="N8" s="7">
-        <v>306439</v>
+        <v>314633</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>382</v>
+        <v>230</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5691,49 +5685,49 @@
         <v>18</v>
       </c>
       <c r="C9" s="7">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7">
+        <v>10776</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="H9" s="7">
         <v>22</v>
       </c>
-      <c r="D9" s="7">
-        <v>13454</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="I9" s="7">
+        <v>13545</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="H9" s="7">
-        <v>18</v>
-      </c>
-      <c r="I9" s="7">
-        <v>11272</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="M9" s="7">
         <v>40</v>
       </c>
       <c r="N9" s="7">
-        <v>24726</v>
+        <v>24321</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>272</v>
+        <v>387</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5742,49 +5736,49 @@
         <v>24</v>
       </c>
       <c r="C10" s="7">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1486</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="H10" s="7">
         <v>2</v>
       </c>
-      <c r="D10" s="7">
-        <v>1416</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>1413</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="H10" s="7">
-        <v>3</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1483</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
       </c>
       <c r="N10" s="7">
-        <v>2899</v>
+        <v>2900</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>122</v>
+        <v>393</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>303</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>394</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5793,49 +5787,49 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>258</v>
+      </c>
+      <c r="D11" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="7">
         <v>276</v>
       </c>
-      <c r="D11" s="7">
-        <v>175299</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="7">
-        <v>258</v>
-      </c>
       <c r="I11" s="7">
-        <v>158765</v>
+        <v>182554</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M11" s="7">
         <v>534</v>
       </c>
       <c r="N11" s="7">
-        <v>334063</v>
+        <v>341853</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5846,49 +5840,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>204</v>
+      </c>
+      <c r="D12" s="7">
+        <v>155131</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="H12" s="7">
         <v>205</v>
       </c>
-      <c r="D12" s="7">
-        <v>170282</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="I12" s="7">
+        <v>179855</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="H12" s="7">
-        <v>204</v>
-      </c>
-      <c r="I12" s="7">
-        <v>157727</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="M12" s="7">
         <v>409</v>
       </c>
       <c r="N12" s="7">
-        <v>328009</v>
+        <v>334987</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="P12" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="Q12" s="7" t="s">
-        <v>402</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5897,49 +5891,49 @@
         <v>18</v>
       </c>
       <c r="C13" s="7">
+        <v>28</v>
+      </c>
+      <c r="D13" s="7">
+        <v>17778</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="H13" s="7">
         <v>37</v>
       </c>
-      <c r="D13" s="7">
-        <v>31519</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="I13" s="7">
+        <v>31956</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="H13" s="7">
-        <v>28</v>
-      </c>
-      <c r="I13" s="7">
-        <v>18228</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
       </c>
       <c r="N13" s="7">
-        <v>49747</v>
+        <v>49734</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5951,10 +5945,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>676</v>
+        <v>163</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>52</v>
+        <v>411</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>19</v>
@@ -5966,7 +5960,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>159</v>
+        <v>679</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>413</v>
@@ -5975,22 +5969,22 @@
         <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>73</v>
+        <v>414</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>835</v>
+        <v>842</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5999,49 +5993,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>233</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="7">
         <v>243</v>
       </c>
-      <c r="D15" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>233</v>
-      </c>
       <c r="I15" s="7">
-        <v>176113</v>
+        <v>212490</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
         <v>476</v>
       </c>
       <c r="N15" s="7">
-        <v>378591</v>
+        <v>385563</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6052,13 +6046,13 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D16" s="7">
-        <v>257522</v>
+        <v>249166</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>416</v>
+        <v>268</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>417</v>
@@ -6067,10 +6061,10 @@
         <v>418</v>
       </c>
       <c r="H16" s="7">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I16" s="7">
-        <v>233307</v>
+        <v>273548</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>419</v>
@@ -6079,22 +6073,22 @@
         <v>420</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>34</v>
+        <v>421</v>
       </c>
       <c r="M16" s="7">
         <v>606</v>
       </c>
       <c r="N16" s="7">
-        <v>490830</v>
+        <v>522714</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>152</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6103,49 +6097,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>34</v>
+      </c>
+      <c r="D17" s="7">
+        <v>23882</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="H17" s="7">
         <v>40</v>
       </c>
-      <c r="D17" s="7">
-        <v>31044</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="H17" s="7">
-        <v>34</v>
-      </c>
       <c r="I17" s="7">
-        <v>24872</v>
+        <v>31067</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M17" s="7">
         <v>74</v>
       </c>
       <c r="N17" s="7">
-        <v>55916</v>
+        <v>54949</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6154,28 +6148,28 @@
         <v>24</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>858</v>
+        <v>1218</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>432</v>
+        <v>347</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H18" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" s="7">
-        <v>1259</v>
+        <v>868</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>102</v>
+        <v>260</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>19</v>
@@ -6187,16 +6181,16 @@
         <v>3</v>
       </c>
       <c r="N18" s="7">
-        <v>2116</v>
+        <v>2087</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>192</v>
+        <v>256</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>435</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>436</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6205,49 +6199,49 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>341</v>
+      </c>
+      <c r="D19" s="7">
+        <v>274267</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="7">
         <v>342</v>
       </c>
-      <c r="D19" s="7">
-        <v>289424</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="7">
-        <v>341</v>
-      </c>
       <c r="I19" s="7">
-        <v>259438</v>
+        <v>305483</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M19" s="7">
         <v>683</v>
       </c>
       <c r="N19" s="7">
-        <v>548862</v>
+        <v>579750</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6258,40 +6252,40 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>846</v>
+      </c>
+      <c r="D20" s="7">
+        <v>604431</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="H20" s="7">
         <v>865</v>
       </c>
-      <c r="D20" s="7">
-        <v>643076</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="I20" s="7">
+        <v>678749</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="H20" s="7">
-        <v>846</v>
-      </c>
-      <c r="I20" s="7">
-        <v>590032</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="M20" s="7">
         <v>1711</v>
       </c>
       <c r="N20" s="7">
-        <v>1233109</v>
+        <v>1283180</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>442</v>
@@ -6309,10 +6303,10 @@
         <v>18</v>
       </c>
       <c r="C21" s="7">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="D21" s="7">
-        <v>76840</v>
+        <v>55468</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>445</v>
@@ -6324,10 +6318,10 @@
         <v>447</v>
       </c>
       <c r="H21" s="7">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="I21" s="7">
-        <v>57376</v>
+        <v>77376</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>448</v>
@@ -6342,7 +6336,7 @@
         <v>187</v>
       </c>
       <c r="N21" s="7">
-        <v>134216</v>
+        <v>132843</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>451</v>
@@ -6360,49 +6354,49 @@
         <v>24</v>
       </c>
       <c r="C22" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" s="7">
-        <v>5366</v>
+        <v>4252</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>454</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>252</v>
-      </c>
       <c r="H22" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I22" s="7">
-        <v>4276</v>
+        <v>5420</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="M22" s="7">
         <v>19</v>
       </c>
       <c r="N22" s="7">
-        <v>9642</v>
+        <v>9672</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>322</v>
+        <v>146</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>458</v>
+        <v>175</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6411,54 +6405,54 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>941</v>
+      </c>
+      <c r="D23" s="7">
+        <v>664150</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="7">
         <v>976</v>
       </c>
-      <c r="D23" s="7">
-        <v>725282</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="7">
-        <v>941</v>
-      </c>
       <c r="I23" s="7">
-        <v>651684</v>
+        <v>761545</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M23" s="7">
         <v>1917</v>
       </c>
       <c r="N23" s="7">
-        <v>1376967</v>
+        <v>1425695</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
